--- a/downloads/ControleODONTO Fluxo de Caixa_FINAL.xlsx
+++ b/downloads/ControleODONTO Fluxo de Caixa_FINAL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC882"/>
+  <dimension ref="A1:AC925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1586,8 +1586,10 @@
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
-        <v>186158</v>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>186158</t>
+        </is>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
@@ -1678,11 +1680,15 @@
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>500471</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>500471</t>
+        </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1778,8 +1784,10 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>186159</v>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>186159</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
@@ -2537,11 +2545,15 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>12</v>
-      </c>
-      <c r="R22" t="n">
-        <v>31776979</v>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>31776979</t>
+        </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3300,8 +3312,10 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="n">
-        <v>186160</v>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>186160</t>
+        </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
@@ -3397,8 +3411,10 @@
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="n">
-        <v>186161</v>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>186161</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
@@ -3774,11 +3790,15 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>12</v>
-      </c>
-      <c r="R35" t="n">
-        <v>35657040</v>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>35657040</t>
+        </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3873,11 +3893,15 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>35669946</v>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>35669946</t>
+        </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -4356,8 +4380,10 @@
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="n">
-        <v>186162</v>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>186162</t>
+        </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
@@ -4544,8 +4570,10 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="n">
-        <v>186163</v>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>186163</t>
+        </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
@@ -5321,11 +5349,15 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>2</v>
-      </c>
-      <c r="R51" t="n">
-        <v>40570036</v>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>40570036</t>
+        </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5425,8 +5457,10 @@
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="n">
-        <v>186164</v>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>186164</t>
+        </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
@@ -5985,8 +6019,10 @@
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="n">
-        <v>186165</v>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>186165</t>
+        </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
@@ -6078,8 +6114,10 @@
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="n">
-        <v>186166</v>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>186166</t>
+        </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
@@ -6171,8 +6209,10 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="n">
-        <v>186167</v>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>186167</t>
+        </is>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
@@ -6755,8 +6795,10 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="n">
-        <v>186168</v>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>186168</t>
+        </is>
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
@@ -7429,11 +7471,15 @@
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="n">
-        <v>10</v>
-      </c>
-      <c r="R73" t="n">
-        <v>45618355</v>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>45618355</t>
+        </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7528,11 +7574,15 @@
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="n">
-        <v>2</v>
-      </c>
-      <c r="R74" t="n">
-        <v>6001</v>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>6001</t>
+        </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -9006,8 +9056,10 @@
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="n">
-        <v>186170</v>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>186170</t>
+        </is>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
@@ -9760,8 +9812,10 @@
         </is>
       </c>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="n">
-        <v>186171</v>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>186171</t>
+        </is>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
@@ -9852,11 +9906,15 @@
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="n">
-        <v>2</v>
-      </c>
-      <c r="R100" t="n">
-        <v>55951931</v>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>55951931</t>
+        </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -10042,11 +10100,15 @@
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="n">
-        <v>18</v>
-      </c>
-      <c r="R102" t="n">
-        <v>774908</v>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>774908</t>
+        </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -10241,8 +10303,10 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="n">
-        <v>186172</v>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>186172</t>
+        </is>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
@@ -12041,11 +12105,15 @@
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="n">
-        <v>12</v>
-      </c>
-      <c r="R123" t="n">
-        <v>60201583</v>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>60201583</t>
+        </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -12140,11 +12208,15 @@
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="n">
-        <v>18</v>
-      </c>
-      <c r="R124" t="n">
-        <v>774912</v>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>774912</t>
+        </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -12427,11 +12499,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q127" t="n">
-        <v>5</v>
-      </c>
-      <c r="R127" t="n">
-        <v>64865283</v>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>64865283</t>
+        </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12531,8 +12607,10 @@
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="n">
-        <v>186174</v>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>186174</t>
+        </is>
       </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
@@ -12723,8 +12801,10 @@
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="n">
-        <v>65259680</v>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>65259680</t>
+        </is>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr">
@@ -12915,8 +12995,10 @@
         </is>
       </c>
       <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="n">
-        <v>186175</v>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>186175</t>
+        </is>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
@@ -13290,11 +13372,15 @@
       </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="n">
-        <v>6</v>
-      </c>
-      <c r="R136" t="n">
-        <v>66383687</v>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>66383687</t>
+        </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -13671,8 +13757,10 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="n">
-        <v>186176</v>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>186176</t>
+        </is>
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr">
@@ -14625,8 +14713,10 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="n">
-        <v>186177</v>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>186177</t>
+        </is>
       </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr">
@@ -14722,8 +14812,10 @@
         </is>
       </c>
       <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="n">
-        <v>68750924</v>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>68750924</t>
+        </is>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr">
@@ -14819,8 +14911,10 @@
         </is>
       </c>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="n">
-        <v>68750924</v>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>68750924</t>
+        </is>
       </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr">
@@ -14917,8 +15011,10 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="n">
-        <v>68931410</v>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>68931410</t>
+        </is>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr">
@@ -15206,8 +15302,10 @@
         </is>
       </c>
       <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="n">
-        <v>69983747</v>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>69983747</t>
+        </is>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr">
@@ -17077,11 +17175,15 @@
       </c>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="n">
-        <v>10</v>
-      </c>
-      <c r="R176" t="n">
-        <v>84183241</v>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>84183241</t>
+        </is>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -17272,8 +17374,10 @@
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="n">
-        <v>84767631</v>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>84767631</t>
+        </is>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr">
@@ -17661,11 +17765,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q182" t="n">
-        <v>10</v>
-      </c>
-      <c r="R182" t="n">
-        <v>85368327</v>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>85368327</t>
+        </is>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -17859,11 +17967,15 @@
       </c>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="n">
-        <v>10</v>
-      </c>
-      <c r="R184" t="n">
-        <v>85665565</v>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>85665565</t>
+        </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -18241,11 +18353,15 @@
       </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="n">
-        <v>5</v>
-      </c>
-      <c r="R188" t="n">
-        <v>86784555</v>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>86784555</t>
+        </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -18341,8 +18457,10 @@
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="n">
-        <v>186180</v>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>186180</t>
+        </is>
       </c>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr">
@@ -18433,11 +18551,15 @@
       </c>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="n">
-        <v>10</v>
-      </c>
-      <c r="R190" t="n">
-        <v>87271820</v>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>87271820</t>
+        </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -19870,11 +19992,15 @@
       </c>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="n">
-        <v>5</v>
-      </c>
-      <c r="R205" t="n">
-        <v>94006271</v>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>94006271</t>
+        </is>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19974,8 +20100,10 @@
         </is>
       </c>
       <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="n">
-        <v>186183</v>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>186183</t>
+        </is>
       </c>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr">
@@ -20455,8 +20583,10 @@
         </is>
       </c>
       <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="n">
-        <v>95199523</v>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>95199523</t>
+        </is>
       </c>
       <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr">
@@ -20547,11 +20677,15 @@
       </c>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="n">
-        <v>4</v>
-      </c>
-      <c r="R212" t="n">
-        <v>95095662</v>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>95095662</t>
+        </is>
       </c>
       <c r="S212" t="inlineStr">
         <is>
@@ -20742,8 +20876,10 @@
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="n">
-        <v>186185</v>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>186185</t>
+        </is>
       </c>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr">
@@ -20835,8 +20971,10 @@
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="n">
-        <v>186186</v>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>186186</t>
+        </is>
       </c>
       <c r="S215" t="inlineStr"/>
       <c r="T215" t="inlineStr">
@@ -21030,11 +21168,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q217" t="n">
-        <v>12</v>
-      </c>
-      <c r="R217" t="n">
-        <v>68001</v>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>68001</t>
+        </is>
       </c>
       <c r="S217" t="inlineStr">
         <is>
@@ -22084,8 +22226,10 @@
         </is>
       </c>
       <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="n">
-        <v>12507854</v>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>12507854</t>
+        </is>
       </c>
       <c r="S228" t="inlineStr"/>
       <c r="T228" t="inlineStr">
@@ -22458,8 +22602,10 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="n">
-        <v>186189</v>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>186189</t>
+        </is>
       </c>
       <c r="S232" t="inlineStr"/>
       <c r="T232" t="inlineStr">
@@ -22550,11 +22696,15 @@
       </c>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="n">
-        <v>12</v>
-      </c>
-      <c r="R233" t="n">
-        <v>13205316</v>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>13205316</t>
+        </is>
       </c>
       <c r="S233" t="inlineStr">
         <is>
@@ -22650,8 +22800,10 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="n">
-        <v>186190</v>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>186190</t>
+        </is>
       </c>
       <c r="S234" t="inlineStr"/>
       <c r="T234" t="inlineStr">
@@ -22842,8 +22994,10 @@
         </is>
       </c>
       <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="n">
-        <v>186191</v>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>186191</t>
+        </is>
       </c>
       <c r="S236" t="inlineStr"/>
       <c r="T236" t="inlineStr">
@@ -22934,11 +23088,15 @@
       </c>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="n">
-        <v>18</v>
-      </c>
-      <c r="R237" t="n">
-        <v>774915</v>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>774915</t>
+        </is>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -23034,8 +23192,10 @@
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
       <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="n">
-        <v>186192</v>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>186192</t>
+        </is>
       </c>
       <c r="S238" t="inlineStr"/>
       <c r="T238" t="inlineStr">
@@ -23226,8 +23386,10 @@
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="n">
-        <v>186193</v>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>186193</t>
+        </is>
       </c>
       <c r="S240" t="inlineStr"/>
       <c r="T240" t="inlineStr">
@@ -23319,8 +23481,10 @@
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="n">
-        <v>186193</v>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>186193</t>
+        </is>
       </c>
       <c r="S241" t="inlineStr"/>
       <c r="T241" t="inlineStr">
@@ -23507,8 +23671,10 @@
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="n">
-        <v>186194</v>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>186194</t>
+        </is>
       </c>
       <c r="S243" t="inlineStr"/>
       <c r="T243" t="inlineStr">
@@ -23983,11 +24149,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q248" t="n">
-        <v>10</v>
-      </c>
-      <c r="R248" t="n">
-        <v>7001</v>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>7001</t>
+        </is>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -24470,11 +24640,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q253" t="n">
-        <v>12</v>
-      </c>
-      <c r="R253" t="n">
-        <v>70196621</v>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>70196621</t>
+        </is>
       </c>
       <c r="S253" t="inlineStr">
         <is>
@@ -24669,11 +24843,15 @@
           <t>2.000,00</t>
         </is>
       </c>
-      <c r="Q255" t="n">
-        <v>10</v>
-      </c>
-      <c r="R255" t="n">
-        <v>70360093</v>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>70360093</t>
+        </is>
       </c>
       <c r="S255" t="inlineStr">
         <is>
@@ -25805,11 +25983,15 @@
       </c>
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="n">
-        <v>2</v>
-      </c>
-      <c r="R267" t="n">
-        <v>71738002</v>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>71738002</t>
+        </is>
       </c>
       <c r="S267" t="inlineStr">
         <is>
@@ -26004,8 +26186,10 @@
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
       <c r="Q269" t="inlineStr"/>
-      <c r="R269" t="n">
-        <v>186197</v>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>186197</t>
+        </is>
       </c>
       <c r="S269" t="inlineStr"/>
       <c r="T269" t="inlineStr">
@@ -27225,8 +27409,10 @@
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr"/>
       <c r="Q282" t="inlineStr"/>
-      <c r="R282" t="n">
-        <v>186198</v>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>186198</t>
+        </is>
       </c>
       <c r="S282" t="inlineStr"/>
       <c r="T282" t="inlineStr">
@@ -27318,8 +27504,10 @@
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr"/>
       <c r="Q283" t="inlineStr"/>
-      <c r="R283" t="n">
-        <v>153703</v>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>153703</t>
+        </is>
       </c>
       <c r="S283" t="inlineStr"/>
       <c r="T283" t="inlineStr">
@@ -27415,8 +27603,10 @@
         </is>
       </c>
       <c r="Q284" t="inlineStr"/>
-      <c r="R284" t="n">
-        <v>153703</v>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>153703</t>
+        </is>
       </c>
       <c r="S284" t="inlineStr"/>
       <c r="T284" t="inlineStr">
@@ -28168,11 +28358,15 @@
       </c>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr"/>
-      <c r="Q292" t="n">
-        <v>2</v>
-      </c>
-      <c r="R292" t="n">
-        <v>76058996</v>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>76058996</t>
+        </is>
       </c>
       <c r="S292" t="inlineStr">
         <is>
@@ -29390,8 +29584,10 @@
         </is>
       </c>
       <c r="Q305" t="inlineStr"/>
-      <c r="R305" t="n">
-        <v>78919012</v>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>78919012</t>
+        </is>
       </c>
       <c r="S305" t="inlineStr"/>
       <c r="T305" t="inlineStr">
@@ -30638,11 +30834,15 @@
       </c>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
-      <c r="Q318" t="n">
-        <v>2</v>
-      </c>
-      <c r="R318" t="n">
-        <v>81122290</v>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>81122290</t>
+        </is>
       </c>
       <c r="S318" t="inlineStr">
         <is>
@@ -30828,11 +31028,15 @@
       </c>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr"/>
-      <c r="Q320" t="n">
-        <v>2</v>
-      </c>
-      <c r="R320" t="n">
-        <v>81761164</v>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>81761164</t>
+        </is>
       </c>
       <c r="S320" t="inlineStr">
         <is>
@@ -31327,11 +31531,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q325" t="n">
-        <v>3</v>
-      </c>
-      <c r="R325" t="n">
-        <v>82354757</v>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>82354757</t>
+        </is>
       </c>
       <c r="S325" t="inlineStr">
         <is>
@@ -31426,11 +31634,15 @@
       </c>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr"/>
-      <c r="Q326" t="n">
-        <v>5</v>
-      </c>
-      <c r="R326" t="n">
-        <v>82677388</v>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>82677388</t>
+        </is>
       </c>
       <c r="S326" t="inlineStr">
         <is>
@@ -31731,11 +31943,15 @@
       </c>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr"/>
-      <c r="Q329" t="n">
-        <v>18</v>
-      </c>
-      <c r="R329" t="n">
-        <v>774919</v>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>774919</t>
+        </is>
       </c>
       <c r="S329" t="inlineStr">
         <is>
@@ -31834,11 +32050,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q330" t="n">
-        <v>18</v>
-      </c>
-      <c r="R330" t="n">
-        <v>774918</v>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>774918</t>
+        </is>
       </c>
       <c r="S330" t="inlineStr">
         <is>
@@ -32131,11 +32351,15 @@
       </c>
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr"/>
-      <c r="Q333" t="n">
-        <v>6</v>
-      </c>
-      <c r="R333" t="n">
-        <v>83313435</v>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>83313435</t>
+        </is>
       </c>
       <c r="S333" t="inlineStr">
         <is>
@@ -32230,11 +32454,15 @@
       </c>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr"/>
-      <c r="Q334" t="n">
-        <v>4</v>
-      </c>
-      <c r="R334" t="n">
-        <v>83590263</v>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>83590263</t>
+        </is>
       </c>
       <c r="S334" t="inlineStr">
         <is>
@@ -32330,8 +32558,10 @@
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr"/>
       <c r="Q335" t="inlineStr"/>
-      <c r="R335" t="n">
-        <v>153706</v>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>153706</t>
+        </is>
       </c>
       <c r="S335" t="inlineStr"/>
       <c r="T335" t="inlineStr">
@@ -32798,11 +33028,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q340" t="n">
-        <v>12</v>
-      </c>
-      <c r="R340" t="n">
-        <v>8001</v>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>8001</t>
+        </is>
       </c>
       <c r="S340" t="inlineStr">
         <is>
@@ -33549,8 +33783,10 @@
         </is>
       </c>
       <c r="Q348" t="inlineStr"/>
-      <c r="R348" t="n">
-        <v>153709</v>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>153709</t>
+        </is>
       </c>
       <c r="S348" t="inlineStr"/>
       <c r="T348" t="inlineStr">
@@ -34015,11 +34251,15 @@
       </c>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr"/>
-      <c r="Q353" t="n">
-        <v>4</v>
-      </c>
-      <c r="R353" t="n">
-        <v>95236285</v>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>95236285</t>
+        </is>
       </c>
       <c r="S353" t="inlineStr">
         <is>
@@ -34591,11 +34831,15 @@
       </c>
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr"/>
-      <c r="Q359" t="n">
-        <v>3</v>
-      </c>
-      <c r="R359" t="n">
-        <v>97368254</v>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>97368254</t>
+        </is>
       </c>
       <c r="S359" t="inlineStr">
         <is>
@@ -34982,8 +35226,10 @@
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr"/>
       <c r="Q363" t="inlineStr"/>
-      <c r="R363" t="n">
-        <v>474339</v>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>474339</t>
+        </is>
       </c>
       <c r="S363" t="inlineStr"/>
       <c r="T363" t="inlineStr">
@@ -35269,8 +35515,10 @@
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr"/>
       <c r="Q366" t="inlineStr"/>
-      <c r="R366" t="n">
-        <v>178734</v>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>178734</t>
+        </is>
       </c>
       <c r="S366" t="inlineStr"/>
       <c r="T366" t="inlineStr">
@@ -35456,11 +35704,15 @@
       </c>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr"/>
-      <c r="Q368" t="n">
-        <v>10</v>
-      </c>
-      <c r="R368" t="n">
-        <v>754561</v>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>754561</t>
+        </is>
       </c>
       <c r="S368" t="inlineStr">
         <is>
@@ -36417,8 +36669,10 @@
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr"/>
       <c r="Q378" t="inlineStr"/>
-      <c r="R378" t="n">
-        <v>474341</v>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>474341</t>
+        </is>
       </c>
       <c r="S378" t="inlineStr"/>
       <c r="T378" t="inlineStr">
@@ -36510,8 +36764,10 @@
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr"/>
       <c r="Q379" t="inlineStr"/>
-      <c r="R379" t="n">
-        <v>474342</v>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>474342</t>
+        </is>
       </c>
       <c r="S379" t="inlineStr"/>
       <c r="T379" t="inlineStr">
@@ -36883,11 +37139,15 @@
       </c>
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr"/>
-      <c r="Q383" t="n">
-        <v>18</v>
-      </c>
-      <c r="R383" t="n">
-        <v>774925</v>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>774925</t>
+        </is>
       </c>
       <c r="S383" t="inlineStr">
         <is>
@@ -36982,11 +37242,15 @@
       </c>
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr"/>
-      <c r="Q384" t="n">
-        <v>18</v>
-      </c>
-      <c r="R384" t="n">
-        <v>774925</v>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>774925</t>
+        </is>
       </c>
       <c r="S384" t="inlineStr">
         <is>
@@ -37376,11 +37640,15 @@
       </c>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr"/>
-      <c r="Q388" t="n">
-        <v>12</v>
-      </c>
-      <c r="R388" t="n">
-        <v>6288883</v>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>6288883</t>
+        </is>
       </c>
       <c r="S388" t="inlineStr">
         <is>
@@ -37475,11 +37743,15 @@
       </c>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr"/>
-      <c r="Q389" t="n">
-        <v>18</v>
-      </c>
-      <c r="R389" t="n">
-        <v>774926</v>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>774926</t>
+        </is>
       </c>
       <c r="S389" t="inlineStr">
         <is>
@@ -37667,11 +37939,15 @@
       </c>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr"/>
-      <c r="Q391" t="n">
-        <v>12</v>
-      </c>
-      <c r="R391" t="n">
-        <v>6288883</v>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>6288883</t>
+        </is>
       </c>
       <c r="S391" t="inlineStr">
         <is>
@@ -37770,11 +38046,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q392" t="n">
-        <v>12</v>
-      </c>
-      <c r="R392" t="n">
-        <v>6302103</v>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>6302103</t>
+        </is>
       </c>
       <c r="S392" t="inlineStr">
         <is>
@@ -38637,11 +38917,15 @@
       </c>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="inlineStr"/>
-      <c r="Q401" t="n">
-        <v>4</v>
-      </c>
-      <c r="R401" t="n">
-        <v>7716148</v>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>7716148</t>
+        </is>
       </c>
       <c r="S401" t="inlineStr">
         <is>
@@ -38737,8 +39021,10 @@
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr"/>
       <c r="Q402" t="inlineStr"/>
-      <c r="R402" t="n">
-        <v>474343</v>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>474343</t>
+        </is>
       </c>
       <c r="S402" t="inlineStr"/>
       <c r="T402" t="inlineStr">
@@ -38829,11 +39115,15 @@
       </c>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="inlineStr"/>
-      <c r="Q403" t="n">
-        <v>12</v>
-      </c>
-      <c r="R403" t="n">
-        <v>8774268</v>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>8774268</t>
+        </is>
       </c>
       <c r="S403" t="inlineStr">
         <is>
@@ -39123,8 +39413,10 @@
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr"/>
       <c r="Q406" t="inlineStr"/>
-      <c r="R406" t="n">
-        <v>474344</v>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>474344</t>
+        </is>
       </c>
       <c r="S406" t="inlineStr"/>
       <c r="T406" t="inlineStr">
@@ -39311,8 +39603,10 @@
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="inlineStr"/>
       <c r="Q408" t="inlineStr"/>
-      <c r="R408" t="n">
-        <v>474345</v>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>474345</t>
+        </is>
       </c>
       <c r="S408" t="inlineStr"/>
       <c r="T408" t="inlineStr">
@@ -39688,11 +39982,15 @@
       </c>
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="inlineStr"/>
-      <c r="Q412" t="n">
-        <v>3</v>
-      </c>
-      <c r="R412" t="n">
-        <v>7802242</v>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>7802242</t>
+        </is>
       </c>
       <c r="S412" t="inlineStr">
         <is>
@@ -40070,11 +40368,15 @@
       </c>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="inlineStr"/>
-      <c r="Q416" t="n">
-        <v>10</v>
-      </c>
-      <c r="R416" t="n">
-        <v>12511553</v>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>12511553</t>
+        </is>
       </c>
       <c r="S416" t="inlineStr">
         <is>
@@ -40623,8 +40925,10 @@
         </is>
       </c>
       <c r="Q422" t="inlineStr"/>
-      <c r="R422" t="n">
-        <v>21126157</v>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>21126157</t>
+        </is>
       </c>
       <c r="S422" t="inlineStr"/>
       <c r="T422" t="inlineStr">
@@ -40807,8 +41111,10 @@
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="inlineStr"/>
       <c r="Q424" t="inlineStr"/>
-      <c r="R424" t="n">
-        <v>21665273</v>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>21665273</t>
+        </is>
       </c>
       <c r="S424" t="inlineStr"/>
       <c r="T424" t="inlineStr">
@@ -40900,8 +41206,10 @@
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr"/>
       <c r="Q425" t="inlineStr"/>
-      <c r="R425" t="n">
-        <v>474347</v>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>474347</t>
+        </is>
       </c>
       <c r="S425" t="inlineStr"/>
       <c r="T425" t="inlineStr">
@@ -41288,8 +41596,10 @@
         </is>
       </c>
       <c r="Q429" t="inlineStr"/>
-      <c r="R429" t="n">
-        <v>474348</v>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>474348</t>
+        </is>
       </c>
       <c r="S429" t="inlineStr"/>
       <c r="T429" t="inlineStr">
@@ -41470,8 +41780,10 @@
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr"/>
       <c r="Q431" t="inlineStr"/>
-      <c r="R431" t="n">
-        <v>474349</v>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>474349</t>
+        </is>
       </c>
       <c r="S431" t="inlineStr"/>
       <c r="T431" t="inlineStr">
@@ -41656,8 +41968,10 @@
         </is>
       </c>
       <c r="Q433" t="inlineStr"/>
-      <c r="R433" t="n">
-        <v>474350</v>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>474350</t>
+        </is>
       </c>
       <c r="S433" t="inlineStr"/>
       <c r="T433" t="inlineStr">
@@ -43006,8 +43320,10 @@
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr"/>
       <c r="Q447" t="inlineStr"/>
-      <c r="R447" t="n">
-        <v>24889171</v>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>24889171</t>
+        </is>
       </c>
       <c r="S447" t="inlineStr"/>
       <c r="T447" t="inlineStr">
@@ -43487,8 +43803,10 @@
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr"/>
       <c r="Q452" t="inlineStr"/>
-      <c r="R452" t="n">
-        <v>474351</v>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>474351</t>
+        </is>
       </c>
       <c r="S452" t="inlineStr"/>
       <c r="T452" t="inlineStr">
@@ -43870,11 +44188,15 @@
       </c>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="inlineStr"/>
-      <c r="Q456" t="n">
-        <v>6</v>
-      </c>
-      <c r="R456" t="n">
-        <v>26946697</v>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>26946697</t>
+        </is>
       </c>
       <c r="S456" t="inlineStr">
         <is>
@@ -45677,11 +45999,15 @@
       </c>
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr"/>
-      <c r="Q475" t="n">
-        <v>18</v>
-      </c>
-      <c r="R475" t="n">
-        <v>774929</v>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>774929</t>
+        </is>
       </c>
       <c r="S475" t="inlineStr">
         <is>
@@ -45780,11 +46106,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q476" t="n">
-        <v>18</v>
-      </c>
-      <c r="R476" t="n">
-        <v>774931</v>
+      <c r="Q476" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>774931</t>
+        </is>
       </c>
       <c r="S476" t="inlineStr">
         <is>
@@ -46074,8 +46404,10 @@
         </is>
       </c>
       <c r="Q479" t="inlineStr"/>
-      <c r="R479" t="n">
-        <v>774933</v>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>774933</t>
+        </is>
       </c>
       <c r="S479" t="inlineStr"/>
       <c r="T479" t="inlineStr">
@@ -46457,11 +46789,15 @@
       </c>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr"/>
-      <c r="Q483" t="n">
-        <v>18</v>
-      </c>
-      <c r="R483" t="n">
-        <v>774932</v>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>774932</t>
+        </is>
       </c>
       <c r="S483" t="inlineStr">
         <is>
@@ -46849,11 +47185,15 @@
       </c>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="inlineStr"/>
-      <c r="Q487" t="n">
-        <v>12</v>
-      </c>
-      <c r="R487" t="n">
-        <v>32564167</v>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>32564167</t>
+        </is>
       </c>
       <c r="S487" t="inlineStr">
         <is>
@@ -48801,8 +49141,10 @@
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="inlineStr"/>
       <c r="Q508" t="inlineStr"/>
-      <c r="R508" t="n">
-        <v>474354</v>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>474354</t>
+        </is>
       </c>
       <c r="S508" t="inlineStr"/>
       <c r="T508" t="inlineStr">
@@ -49181,8 +49523,10 @@
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="inlineStr"/>
       <c r="Q512" t="inlineStr"/>
-      <c r="R512" t="n">
-        <v>474355</v>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>474355</t>
+        </is>
       </c>
       <c r="S512" t="inlineStr"/>
       <c r="T512" t="inlineStr">
@@ -50033,11 +50377,15 @@
       </c>
       <c r="O521" t="inlineStr"/>
       <c r="P521" t="inlineStr"/>
-      <c r="Q521" t="n">
-        <v>12</v>
-      </c>
-      <c r="R521" t="n">
-        <v>50215381</v>
+      <c r="Q521" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>50215381</t>
+        </is>
       </c>
       <c r="S521" t="inlineStr">
         <is>
@@ -51353,8 +51701,10 @@
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="inlineStr"/>
       <c r="Q535" t="inlineStr"/>
-      <c r="R535" t="n">
-        <v>474357</v>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>474357</t>
+        </is>
       </c>
       <c r="S535" t="inlineStr"/>
       <c r="T535" t="inlineStr">
@@ -52403,11 +52753,15 @@
       </c>
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="inlineStr"/>
-      <c r="Q546" t="n">
-        <v>10</v>
-      </c>
-      <c r="R546" t="n">
-        <v>1002</v>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
       </c>
       <c r="S546" t="inlineStr">
         <is>
@@ -52602,8 +52956,10 @@
       <c r="O548" t="inlineStr"/>
       <c r="P548" t="inlineStr"/>
       <c r="Q548" t="inlineStr"/>
-      <c r="R548" t="n">
-        <v>59189040</v>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>59189040</t>
+        </is>
       </c>
       <c r="S548" t="inlineStr"/>
       <c r="T548" t="inlineStr">
@@ -52790,8 +53146,10 @@
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr"/>
       <c r="Q550" t="inlineStr"/>
-      <c r="R550" t="n">
-        <v>474359</v>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>474359</t>
+        </is>
       </c>
       <c r="S550" t="inlineStr"/>
       <c r="T550" t="inlineStr">
@@ -52883,8 +53241,10 @@
       <c r="O551" t="inlineStr"/>
       <c r="P551" t="inlineStr"/>
       <c r="Q551" t="inlineStr"/>
-      <c r="R551" t="n">
-        <v>474359</v>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>474359</t>
+        </is>
       </c>
       <c r="S551" t="inlineStr"/>
       <c r="T551" t="inlineStr">
@@ -53178,8 +53538,10 @@
         </is>
       </c>
       <c r="Q554" t="inlineStr"/>
-      <c r="R554" t="n">
-        <v>474360</v>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>474360</t>
+        </is>
       </c>
       <c r="S554" t="inlineStr"/>
       <c r="T554" t="inlineStr">
@@ -53750,8 +54112,10 @@
       <c r="O560" t="inlineStr"/>
       <c r="P560" t="inlineStr"/>
       <c r="Q560" t="inlineStr"/>
-      <c r="R560" t="n">
-        <v>474361</v>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>474361</t>
+        </is>
       </c>
       <c r="S560" t="inlineStr"/>
       <c r="T560" t="inlineStr">
@@ -53937,11 +54301,15 @@
       </c>
       <c r="O562" t="inlineStr"/>
       <c r="P562" t="inlineStr"/>
-      <c r="Q562" t="n">
-        <v>10</v>
-      </c>
-      <c r="R562" t="n">
-        <v>63353700</v>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R562" t="inlineStr">
+        <is>
+          <t>63353700</t>
+        </is>
       </c>
       <c r="S562" t="inlineStr">
         <is>
@@ -54040,11 +54408,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q563" t="n">
-        <v>5</v>
-      </c>
-      <c r="R563" t="n">
-        <v>63384627</v>
+      <c r="Q563" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>63384627</t>
+        </is>
       </c>
       <c r="S563" t="inlineStr">
         <is>
@@ -54143,11 +54515,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q564" t="n">
-        <v>5</v>
-      </c>
-      <c r="R564" t="n">
-        <v>63192037</v>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>63192037</t>
+        </is>
       </c>
       <c r="S564" t="inlineStr">
         <is>
@@ -54246,11 +54622,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q565" t="n">
-        <v>12</v>
-      </c>
-      <c r="R565" t="n">
-        <v>63979993</v>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t>63979993</t>
+        </is>
       </c>
       <c r="S565" t="inlineStr">
         <is>
@@ -54349,11 +54729,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q566" t="n">
-        <v>4</v>
-      </c>
-      <c r="R566" t="n">
-        <v>64114587</v>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>64114587</t>
+        </is>
       </c>
       <c r="S566" t="inlineStr">
         <is>
@@ -54452,11 +54836,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q567" t="n">
-        <v>10</v>
-      </c>
-      <c r="R567" t="n">
-        <v>161789923</v>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>161789923</t>
+        </is>
       </c>
       <c r="S567" t="inlineStr">
         <is>
@@ -55031,11 +55419,15 @@
       </c>
       <c r="O573" t="inlineStr"/>
       <c r="P573" t="inlineStr"/>
-      <c r="Q573" t="n">
-        <v>6</v>
-      </c>
-      <c r="R573" t="n">
-        <v>74113132</v>
+      <c r="Q573" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R573" t="inlineStr">
+        <is>
+          <t>74113132</t>
+        </is>
       </c>
       <c r="S573" t="inlineStr">
         <is>
@@ -55230,8 +55622,10 @@
         </is>
       </c>
       <c r="Q575" t="inlineStr"/>
-      <c r="R575" t="n">
-        <v>474365</v>
+      <c r="R575" t="inlineStr">
+        <is>
+          <t>474365</t>
+        </is>
       </c>
       <c r="S575" t="inlineStr"/>
       <c r="T575" t="inlineStr">
@@ -55712,11 +56106,15 @@
       </c>
       <c r="O580" t="inlineStr"/>
       <c r="P580" t="inlineStr"/>
-      <c r="Q580" t="n">
-        <v>6</v>
-      </c>
-      <c r="R580" t="n">
-        <v>74975048</v>
+      <c r="Q580" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R580" t="inlineStr">
+        <is>
+          <t>74975048</t>
+        </is>
       </c>
       <c r="S580" t="inlineStr">
         <is>
@@ -56280,11 +56678,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q586" t="n">
-        <v>12</v>
-      </c>
-      <c r="R586" t="n">
-        <v>76320422</v>
+      <c r="Q586" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>76320422</t>
+        </is>
       </c>
       <c r="S586" t="inlineStr">
         <is>
@@ -56564,8 +56966,10 @@
       <c r="O589" t="inlineStr"/>
       <c r="P589" t="inlineStr"/>
       <c r="Q589" t="inlineStr"/>
-      <c r="R589" t="n">
-        <v>76658222</v>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>76658222</t>
+        </is>
       </c>
       <c r="S589" t="inlineStr"/>
       <c r="T589" t="inlineStr">
@@ -57978,11 +58382,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q604" t="n">
-        <v>12</v>
-      </c>
-      <c r="R604" t="n">
-        <v>75189243</v>
+      <c r="Q604" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>75189243</t>
+        </is>
       </c>
       <c r="S604" t="inlineStr">
         <is>
@@ -58077,11 +58485,15 @@
       </c>
       <c r="O605" t="inlineStr"/>
       <c r="P605" t="inlineStr"/>
-      <c r="Q605" t="n">
-        <v>5</v>
-      </c>
-      <c r="R605" t="n">
-        <v>82588041</v>
+      <c r="Q605" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>82588041</t>
+        </is>
       </c>
       <c r="S605" t="inlineStr">
         <is>
@@ -58360,11 +58772,15 @@
       </c>
       <c r="O608" t="inlineStr"/>
       <c r="P608" t="inlineStr"/>
-      <c r="Q608" t="n">
-        <v>2</v>
-      </c>
-      <c r="R608" t="n">
-        <v>82745622</v>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>82745622</t>
+        </is>
       </c>
       <c r="S608" t="inlineStr">
         <is>
@@ -58954,11 +59370,15 @@
       </c>
       <c r="O614" t="inlineStr"/>
       <c r="P614" t="inlineStr"/>
-      <c r="Q614" t="n">
-        <v>12</v>
-      </c>
-      <c r="R614" t="n">
-        <v>84066380</v>
+      <c r="Q614" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R614" t="inlineStr">
+        <is>
+          <t>84066380</t>
+        </is>
       </c>
       <c r="S614" t="inlineStr">
         <is>
@@ -59057,11 +59477,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q615" t="n">
-        <v>12</v>
-      </c>
-      <c r="R615" t="n">
-        <v>84068920</v>
+      <c r="Q615" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R615" t="inlineStr">
+        <is>
+          <t>84068920</t>
+        </is>
       </c>
       <c r="S615" t="inlineStr">
         <is>
@@ -59249,11 +59673,15 @@
       </c>
       <c r="O617" t="inlineStr"/>
       <c r="P617" t="inlineStr"/>
-      <c r="Q617" t="n">
-        <v>18</v>
-      </c>
-      <c r="R617" t="n">
-        <v>774938</v>
+      <c r="Q617" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>774938</t>
+        </is>
       </c>
       <c r="S617" t="inlineStr">
         <is>
@@ -59352,11 +59780,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q618" t="n">
-        <v>18</v>
-      </c>
-      <c r="R618" t="n">
-        <v>774939</v>
+      <c r="Q618" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R618" t="inlineStr">
+        <is>
+          <t>774939</t>
+        </is>
       </c>
       <c r="S618" t="inlineStr">
         <is>
@@ -60021,11 +60453,15 @@
       </c>
       <c r="O625" t="inlineStr"/>
       <c r="P625" t="inlineStr"/>
-      <c r="Q625" t="n">
-        <v>18</v>
-      </c>
-      <c r="R625" t="n">
-        <v>774940</v>
+      <c r="Q625" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R625" t="inlineStr">
+        <is>
+          <t>774940</t>
+        </is>
       </c>
       <c r="S625" t="inlineStr">
         <is>
@@ -60120,11 +60556,15 @@
       </c>
       <c r="O626" t="inlineStr"/>
       <c r="P626" t="inlineStr"/>
-      <c r="Q626" t="n">
-        <v>6</v>
-      </c>
-      <c r="R626" t="n">
-        <v>9001</v>
+      <c r="Q626" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R626" t="inlineStr">
+        <is>
+          <t>9001</t>
+        </is>
       </c>
       <c r="S626" t="inlineStr">
         <is>
@@ -60412,8 +60852,10 @@
         </is>
       </c>
       <c r="Q629" t="inlineStr"/>
-      <c r="R629" t="n">
-        <v>474367</v>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>474367</t>
+        </is>
       </c>
       <c r="S629" t="inlineStr"/>
       <c r="T629" t="inlineStr">
@@ -60513,8 +60955,10 @@
       <c r="O630" t="inlineStr"/>
       <c r="P630" t="inlineStr"/>
       <c r="Q630" t="inlineStr"/>
-      <c r="R630" t="n">
-        <v>474367</v>
+      <c r="R630" t="inlineStr">
+        <is>
+          <t>474367</t>
+        </is>
       </c>
       <c r="S630" t="inlineStr"/>
       <c r="T630" t="inlineStr">
@@ -60613,11 +61057,15 @@
       </c>
       <c r="O631" t="inlineStr"/>
       <c r="P631" t="inlineStr"/>
-      <c r="Q631" t="n">
-        <v>12</v>
-      </c>
-      <c r="R631" t="n">
-        <v>86235515</v>
+      <c r="Q631" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>86235515</t>
+        </is>
       </c>
       <c r="S631" t="inlineStr">
         <is>
@@ -62337,11 +62785,15 @@
       </c>
       <c r="O649" t="inlineStr"/>
       <c r="P649" t="inlineStr"/>
-      <c r="Q649" t="n">
-        <v>12</v>
-      </c>
-      <c r="R649" t="n">
-        <v>88202943</v>
+      <c r="Q649" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R649" t="inlineStr">
+        <is>
+          <t>88202943</t>
+        </is>
       </c>
       <c r="S649" t="inlineStr">
         <is>
@@ -63013,11 +63465,15 @@
       </c>
       <c r="O656" t="inlineStr"/>
       <c r="P656" t="inlineStr"/>
-      <c r="Q656" t="n">
-        <v>18</v>
-      </c>
-      <c r="R656" t="n">
-        <v>774943</v>
+      <c r="Q656" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R656" t="inlineStr">
+        <is>
+          <t>774943</t>
+        </is>
       </c>
       <c r="S656" t="inlineStr">
         <is>
@@ -63116,11 +63572,15 @@
       </c>
       <c r="O657" t="inlineStr"/>
       <c r="P657" t="inlineStr"/>
-      <c r="Q657" t="n">
-        <v>5</v>
-      </c>
-      <c r="R657" t="n">
-        <v>91302855</v>
+      <c r="Q657" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R657" t="inlineStr">
+        <is>
+          <t>91302855</t>
+        </is>
       </c>
       <c r="S657" t="inlineStr">
         <is>
@@ -63950,8 +64410,10 @@
         </is>
       </c>
       <c r="Q666" t="inlineStr"/>
-      <c r="R666" t="n">
-        <v>474377</v>
+      <c r="R666" t="inlineStr">
+        <is>
+          <t>474377</t>
+        </is>
       </c>
       <c r="S666" t="inlineStr"/>
       <c r="T666" t="inlineStr">
@@ -65362,11 +65824,15 @@
       </c>
       <c r="O681" t="inlineStr"/>
       <c r="P681" t="inlineStr"/>
-      <c r="Q681" t="n">
-        <v>4</v>
-      </c>
-      <c r="R681" t="n">
-        <v>5798744</v>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>5798744</t>
+        </is>
       </c>
       <c r="S681" t="inlineStr">
         <is>
@@ -65563,8 +66029,10 @@
         </is>
       </c>
       <c r="Q683" t="inlineStr"/>
-      <c r="R683" t="n">
-        <v>474380</v>
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>474380</t>
+        </is>
       </c>
       <c r="S683" t="inlineStr"/>
       <c r="T683" t="inlineStr">
@@ -65664,8 +66132,10 @@
       <c r="O684" t="inlineStr"/>
       <c r="P684" t="inlineStr"/>
       <c r="Q684" t="inlineStr"/>
-      <c r="R684" t="n">
-        <v>474379</v>
+      <c r="R684" t="inlineStr">
+        <is>
+          <t>474379</t>
+        </is>
       </c>
       <c r="S684" t="inlineStr"/>
       <c r="T684" t="inlineStr">
@@ -65947,8 +66417,10 @@
       <c r="O687" t="inlineStr"/>
       <c r="P687" t="inlineStr"/>
       <c r="Q687" t="inlineStr"/>
-      <c r="R687" t="n">
-        <v>7443403</v>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>7443403</t>
+        </is>
       </c>
       <c r="S687" t="inlineStr"/>
       <c r="T687" t="inlineStr">
@@ -66044,8 +66516,10 @@
         </is>
       </c>
       <c r="Q688" t="inlineStr"/>
-      <c r="R688" t="n">
-        <v>474382</v>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>474382</t>
+        </is>
       </c>
       <c r="S688" t="inlineStr"/>
       <c r="T688" t="inlineStr">
@@ -66511,8 +66985,10 @@
       <c r="O693" t="inlineStr"/>
       <c r="P693" t="inlineStr"/>
       <c r="Q693" t="inlineStr"/>
-      <c r="R693" t="n">
-        <v>474381</v>
+      <c r="R693" t="inlineStr">
+        <is>
+          <t>474381</t>
+        </is>
       </c>
       <c r="S693" t="inlineStr"/>
       <c r="T693" t="inlineStr">
@@ -66603,11 +67079,15 @@
       </c>
       <c r="O694" t="inlineStr"/>
       <c r="P694" t="inlineStr"/>
-      <c r="Q694" t="n">
-        <v>10</v>
-      </c>
-      <c r="R694" t="n">
-        <v>6388395</v>
+      <c r="Q694" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R694" t="inlineStr">
+        <is>
+          <t>6388395</t>
+        </is>
       </c>
       <c r="S694" t="inlineStr">
         <is>
@@ -67089,11 +67569,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q699" t="n">
-        <v>2</v>
-      </c>
-      <c r="R699" t="n">
-        <v>9080750</v>
+      <c r="Q699" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R699" t="inlineStr">
+        <is>
+          <t>9080750</t>
+        </is>
       </c>
       <c r="S699" t="inlineStr">
         <is>
@@ -67188,11 +67672,15 @@
       </c>
       <c r="O700" t="inlineStr"/>
       <c r="P700" t="inlineStr"/>
-      <c r="Q700" t="n">
-        <v>12</v>
-      </c>
-      <c r="R700" t="n">
-        <v>774946</v>
+      <c r="Q700" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R700" t="inlineStr">
+        <is>
+          <t>774946</t>
+        </is>
       </c>
       <c r="S700" t="inlineStr">
         <is>
@@ -67292,8 +67780,10 @@
         </is>
       </c>
       <c r="Q701" t="inlineStr"/>
-      <c r="R701" t="n">
-        <v>474383</v>
+      <c r="R701" t="inlineStr">
+        <is>
+          <t>474383</t>
+        </is>
       </c>
       <c r="S701" t="inlineStr"/>
       <c r="T701" t="inlineStr">
@@ -67582,11 +68072,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q704" t="n">
-        <v>12</v>
-      </c>
-      <c r="R704" t="n">
-        <v>774949</v>
+      <c r="Q704" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R704" t="inlineStr">
+        <is>
+          <t>774949</t>
+        </is>
       </c>
       <c r="S704" t="inlineStr">
         <is>
@@ -67950,11 +68444,15 @@
       </c>
       <c r="O708" t="inlineStr"/>
       <c r="P708" t="inlineStr"/>
-      <c r="Q708" t="n">
-        <v>12</v>
-      </c>
-      <c r="R708" t="n">
-        <v>60264454</v>
+      <c r="Q708" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R708" t="inlineStr">
+        <is>
+          <t>60264454</t>
+        </is>
       </c>
       <c r="S708" t="inlineStr">
         <is>
@@ -68049,11 +68547,15 @@
       </c>
       <c r="O709" t="inlineStr"/>
       <c r="P709" t="inlineStr"/>
-      <c r="Q709" t="n">
-        <v>10</v>
-      </c>
-      <c r="R709" t="n">
-        <v>60423526</v>
+      <c r="Q709" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R709" t="inlineStr">
+        <is>
+          <t>60423526</t>
+        </is>
       </c>
       <c r="S709" t="inlineStr">
         <is>
@@ -68244,8 +68746,10 @@
       <c r="O711" t="inlineStr"/>
       <c r="P711" t="inlineStr"/>
       <c r="Q711" t="inlineStr"/>
-      <c r="R711" t="n">
-        <v>153711</v>
+      <c r="R711" t="inlineStr">
+        <is>
+          <t>153711</t>
+        </is>
       </c>
       <c r="S711" t="inlineStr"/>
       <c r="T711" t="inlineStr">
@@ -68337,8 +68841,10 @@
       <c r="O712" t="inlineStr"/>
       <c r="P712" t="inlineStr"/>
       <c r="Q712" t="inlineStr"/>
-      <c r="R712" t="n">
-        <v>61009943</v>
+      <c r="R712" t="inlineStr">
+        <is>
+          <t>61009943</t>
+        </is>
       </c>
       <c r="S712" t="inlineStr"/>
       <c r="T712" t="inlineStr">
@@ -68429,11 +68935,15 @@
       </c>
       <c r="O713" t="inlineStr"/>
       <c r="P713" t="inlineStr"/>
-      <c r="Q713" t="n">
-        <v>12</v>
-      </c>
-      <c r="R713" t="n">
-        <v>60945954</v>
+      <c r="Q713" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R713" t="inlineStr">
+        <is>
+          <t>60945954</t>
+        </is>
       </c>
       <c r="S713" t="inlineStr">
         <is>
@@ -68822,8 +69332,10 @@
       <c r="O717" t="inlineStr"/>
       <c r="P717" t="inlineStr"/>
       <c r="Q717" t="inlineStr"/>
-      <c r="R717" t="n">
-        <v>153712</v>
+      <c r="R717" t="inlineStr">
+        <is>
+          <t>153712</t>
+        </is>
       </c>
       <c r="S717" t="inlineStr"/>
       <c r="T717" t="inlineStr">
@@ -69007,11 +69519,15 @@
       </c>
       <c r="O719" t="inlineStr"/>
       <c r="P719" t="inlineStr"/>
-      <c r="Q719" t="n">
-        <v>2</v>
-      </c>
-      <c r="R719" t="n">
-        <v>62080911</v>
+      <c r="Q719" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R719" t="inlineStr">
+        <is>
+          <t>62080911</t>
+        </is>
       </c>
       <c r="S719" t="inlineStr">
         <is>
@@ -69398,8 +69914,10 @@
         </is>
       </c>
       <c r="Q723" t="inlineStr"/>
-      <c r="R723" t="n">
-        <v>62602155</v>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>62602155</t>
+        </is>
       </c>
       <c r="S723" t="inlineStr"/>
       <c r="T723" t="inlineStr">
@@ -69490,11 +70008,15 @@
       </c>
       <c r="O724" t="inlineStr"/>
       <c r="P724" t="inlineStr"/>
-      <c r="Q724" t="n">
-        <v>2</v>
-      </c>
-      <c r="R724" t="n">
-        <v>62664677</v>
+      <c r="Q724" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R724" t="inlineStr">
+        <is>
+          <t>62664677</t>
+        </is>
       </c>
       <c r="S724" t="inlineStr">
         <is>
@@ -69678,11 +70200,15 @@
       </c>
       <c r="O726" t="inlineStr"/>
       <c r="P726" t="inlineStr"/>
-      <c r="Q726" t="n">
-        <v>12</v>
-      </c>
-      <c r="R726" t="n">
-        <v>62964910</v>
+      <c r="Q726" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R726" t="inlineStr">
+        <is>
+          <t>62964910</t>
+        </is>
       </c>
       <c r="S726" t="inlineStr">
         <is>
@@ -70067,8 +70593,10 @@
       <c r="O730" t="inlineStr"/>
       <c r="P730" t="inlineStr"/>
       <c r="Q730" t="inlineStr"/>
-      <c r="R730" t="n">
-        <v>153713</v>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>153713</t>
+        </is>
       </c>
       <c r="S730" t="inlineStr"/>
       <c r="T730" t="inlineStr">
@@ -70252,11 +70780,15 @@
       </c>
       <c r="O732" t="inlineStr"/>
       <c r="P732" t="inlineStr"/>
-      <c r="Q732" t="n">
-        <v>12</v>
-      </c>
-      <c r="R732" t="n">
-        <v>63449820</v>
+      <c r="Q732" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R732" t="inlineStr">
+        <is>
+          <t>63449820</t>
+        </is>
       </c>
       <c r="S732" t="inlineStr">
         <is>
@@ -70352,8 +70884,10 @@
       <c r="O733" t="inlineStr"/>
       <c r="P733" t="inlineStr"/>
       <c r="Q733" t="inlineStr"/>
-      <c r="R733" t="n">
-        <v>153714</v>
+      <c r="R733" t="inlineStr">
+        <is>
+          <t>153714</t>
+        </is>
       </c>
       <c r="S733" t="inlineStr"/>
       <c r="T733" t="inlineStr">
@@ -70824,11 +71358,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q738" t="n">
-        <v>18</v>
-      </c>
-      <c r="R738" t="n">
-        <v>774952</v>
+      <c r="Q738" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R738" t="inlineStr">
+        <is>
+          <t>774952</t>
+        </is>
       </c>
       <c r="S738" t="inlineStr">
         <is>
@@ -71125,11 +71663,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q741" t="n">
-        <v>10</v>
-      </c>
-      <c r="R741" t="n">
-        <v>68970952</v>
+      <c r="Q741" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R741" t="inlineStr">
+        <is>
+          <t>68970952</t>
+        </is>
       </c>
       <c r="S741" t="inlineStr">
         <is>
@@ -71414,11 +71956,15 @@
       </c>
       <c r="O744" t="inlineStr"/>
       <c r="P744" t="inlineStr"/>
-      <c r="Q744" t="n">
-        <v>18</v>
-      </c>
-      <c r="R744" t="n">
-        <v>774953</v>
+      <c r="Q744" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>774953</t>
+        </is>
       </c>
       <c r="S744" t="inlineStr">
         <is>
@@ -71803,8 +72349,10 @@
         </is>
       </c>
       <c r="Q748" t="inlineStr"/>
-      <c r="R748" t="n">
-        <v>72867761</v>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>72867761</t>
+        </is>
       </c>
       <c r="S748" t="inlineStr"/>
       <c r="T748" t="inlineStr">
@@ -72561,8 +73109,10 @@
       <c r="O756" t="inlineStr"/>
       <c r="P756" t="inlineStr"/>
       <c r="Q756" t="inlineStr"/>
-      <c r="R756" t="n">
-        <v>153717</v>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>153717</t>
+        </is>
       </c>
       <c r="S756" t="inlineStr"/>
       <c r="T756" t="inlineStr">
@@ -72653,11 +73203,15 @@
       </c>
       <c r="O757" t="inlineStr"/>
       <c r="P757" t="inlineStr"/>
-      <c r="Q757" t="n">
-        <v>10</v>
-      </c>
-      <c r="R757" t="n">
-        <v>73756478</v>
+      <c r="Q757" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>73756478</t>
+        </is>
       </c>
       <c r="S757" t="inlineStr">
         <is>
@@ -73386,7 +73940,7 @@
         <v>0</v>
       </c>
       <c r="K765" t="n">
-        <v>1000</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="L765" t="n">
         <v>2.6</v>
@@ -73403,11 +73957,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q765" t="n">
-        <v>10</v>
-      </c>
-      <c r="R765" t="n">
-        <v>82781877</v>
+      <c r="Q765" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R765" t="inlineStr">
+        <is>
+          <t>82781877</t>
+        </is>
       </c>
       <c r="S765" t="inlineStr">
         <is>
@@ -73506,11 +74064,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q766" t="n">
-        <v>10</v>
-      </c>
-      <c r="R766" t="n">
-        <v>82824958</v>
+      <c r="Q766" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R766" t="inlineStr">
+        <is>
+          <t>82824958</t>
+        </is>
       </c>
       <c r="S766" t="inlineStr">
         <is>
@@ -73685,7 +74247,7 @@
         <v>0</v>
       </c>
       <c r="K768" t="n">
-        <v>95</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="L768" t="n">
         <v>1.65</v>
@@ -73703,8 +74265,10 @@
         </is>
       </c>
       <c r="Q768" t="inlineStr"/>
-      <c r="R768" t="n">
-        <v>83801167</v>
+      <c r="R768" t="inlineStr">
+        <is>
+          <t>83801167</t>
+        </is>
       </c>
       <c r="S768" t="inlineStr"/>
       <c r="T768" t="inlineStr">
@@ -73791,11 +74355,15 @@
       </c>
       <c r="O769" t="inlineStr"/>
       <c r="P769" t="inlineStr"/>
-      <c r="Q769" t="n">
-        <v>10</v>
-      </c>
-      <c r="R769" t="n">
-        <v>83738645</v>
+      <c r="Q769" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R769" t="inlineStr">
+        <is>
+          <t>83738645</t>
+        </is>
       </c>
       <c r="S769" t="inlineStr">
         <is>
@@ -74433,7 +75001,7 @@
         <v>0</v>
       </c>
       <c r="K776" t="n">
-        <v>400</v>
+        <v>394.24</v>
       </c>
       <c r="L776" t="n">
         <v>5.76</v>
@@ -74447,8 +75015,10 @@
       <c r="O776" t="inlineStr"/>
       <c r="P776" t="inlineStr"/>
       <c r="Q776" t="inlineStr"/>
-      <c r="R776" t="n">
-        <v>153720</v>
+      <c r="R776" t="inlineStr">
+        <is>
+          <t>153720</t>
+        </is>
       </c>
       <c r="S776" t="inlineStr"/>
       <c r="T776" t="inlineStr">
@@ -74526,7 +75096,7 @@
         <v>0</v>
       </c>
       <c r="K777" t="n">
-        <v>1100</v>
+        <v>215.38</v>
       </c>
       <c r="L777" t="n">
         <v>4.62</v>
@@ -74539,11 +75109,15 @@
       </c>
       <c r="O777" t="inlineStr"/>
       <c r="P777" t="inlineStr"/>
-      <c r="Q777" t="n">
-        <v>5</v>
-      </c>
-      <c r="R777" t="n">
-        <v>84763404</v>
+      <c r="Q777" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>84763404</t>
+        </is>
       </c>
       <c r="S777" t="inlineStr">
         <is>
@@ -75098,7 +75672,7 @@
         <v>0</v>
       </c>
       <c r="K783" t="n">
-        <v>300</v>
+        <v>146.85</v>
       </c>
       <c r="L783" t="n">
         <v>3.15</v>
@@ -75111,11 +75685,15 @@
       </c>
       <c r="O783" t="inlineStr"/>
       <c r="P783" t="inlineStr"/>
-      <c r="Q783" t="n">
-        <v>2</v>
-      </c>
-      <c r="R783" t="n">
-        <v>85538790</v>
+      <c r="Q783" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>85538790</t>
+        </is>
       </c>
       <c r="S783" t="inlineStr">
         <is>
@@ -75385,7 +75963,7 @@
         <v>0</v>
       </c>
       <c r="K786" t="n">
-        <v>2280</v>
+        <v>446.42</v>
       </c>
       <c r="L786" t="n">
         <v>9.58</v>
@@ -75402,11 +75980,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q786" t="n">
-        <v>5</v>
-      </c>
-      <c r="R786" t="n">
-        <v>85040938</v>
+      <c r="Q786" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>85040938</t>
+        </is>
       </c>
       <c r="S786" t="inlineStr">
         <is>
@@ -75786,11 +76368,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q790" t="n">
-        <v>10</v>
-      </c>
-      <c r="R790" t="n">
-        <v>86864798</v>
+      <c r="Q790" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R790" t="inlineStr">
+        <is>
+          <t>86864798</t>
+        </is>
       </c>
       <c r="S790" t="inlineStr">
         <is>
@@ -75872,7 +76458,7 @@
         <v>0</v>
       </c>
       <c r="K791" t="n">
-        <v>178.5</v>
+        <v>175.39</v>
       </c>
       <c r="L791" t="n">
         <v>3.11</v>
@@ -75886,8 +76472,10 @@
       <c r="O791" t="inlineStr"/>
       <c r="P791" t="inlineStr"/>
       <c r="Q791" t="inlineStr"/>
-      <c r="R791" t="n">
-        <v>87000462</v>
+      <c r="R791" t="inlineStr">
+        <is>
+          <t>87000462</t>
+        </is>
       </c>
       <c r="S791" t="inlineStr"/>
       <c r="T791" t="inlineStr">
@@ -76745,7 +77333,7 @@
         <v>0</v>
       </c>
       <c r="K800" t="n">
-        <v>1000</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="L800" t="n">
         <v>2.6</v>
@@ -76758,11 +77346,15 @@
       </c>
       <c r="O800" t="inlineStr"/>
       <c r="P800" t="inlineStr"/>
-      <c r="Q800" t="n">
-        <v>10</v>
-      </c>
-      <c r="R800" t="n">
-        <v>92623647</v>
+      <c r="Q800" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R800" t="inlineStr">
+        <is>
+          <t>92623647</t>
+        </is>
       </c>
       <c r="S800" t="inlineStr">
         <is>
@@ -76933,7 +77525,7 @@
         <v>0</v>
       </c>
       <c r="K802" t="n">
-        <v>170</v>
+        <v>167.55</v>
       </c>
       <c r="L802" t="n">
         <v>2.45</v>
@@ -76951,8 +77543,10 @@
         </is>
       </c>
       <c r="Q802" t="inlineStr"/>
-      <c r="R802" t="n">
-        <v>153723</v>
+      <c r="R802" t="inlineStr">
+        <is>
+          <t>153723</t>
+        </is>
       </c>
       <c r="S802" t="inlineStr"/>
       <c r="T802" t="inlineStr">
@@ -77220,7 +77814,7 @@
         <v>0</v>
       </c>
       <c r="K805" t="n">
-        <v>157.5</v>
+        <v>154.76</v>
       </c>
       <c r="L805" t="n">
         <v>2.74</v>
@@ -77234,8 +77828,10 @@
       <c r="O805" t="inlineStr"/>
       <c r="P805" t="inlineStr"/>
       <c r="Q805" t="inlineStr"/>
-      <c r="R805" t="n">
-        <v>93162703</v>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>93162703</t>
+        </is>
       </c>
       <c r="S805" t="inlineStr"/>
       <c r="T805" t="inlineStr">
@@ -77968,7 +78564,7 @@
         <v>0</v>
       </c>
       <c r="K813" t="n">
-        <v>160</v>
+        <v>157.7</v>
       </c>
       <c r="L813" t="n">
         <v>2.3</v>
@@ -77982,8 +78578,10 @@
       <c r="O813" t="inlineStr"/>
       <c r="P813" t="inlineStr"/>
       <c r="Q813" t="inlineStr"/>
-      <c r="R813" t="n">
-        <v>153725</v>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>153725</t>
+        </is>
       </c>
       <c r="S813" t="inlineStr"/>
       <c r="T813" t="inlineStr">
@@ -78257,8 +78855,10 @@
       <c r="O816" t="inlineStr"/>
       <c r="P816" t="inlineStr"/>
       <c r="Q816" t="inlineStr"/>
-      <c r="R816" t="n">
-        <v>853141</v>
+      <c r="R816" t="inlineStr">
+        <is>
+          <t>853141</t>
+        </is>
       </c>
       <c r="S816" t="inlineStr">
         <is>
@@ -78352,8 +78952,10 @@
       <c r="O817" t="inlineStr"/>
       <c r="P817" t="inlineStr"/>
       <c r="Q817" t="inlineStr"/>
-      <c r="R817" t="n">
-        <v>853142</v>
+      <c r="R817" t="inlineStr">
+        <is>
+          <t>853142</t>
+        </is>
       </c>
       <c r="S817" t="inlineStr">
         <is>
@@ -78435,7 +79037,7 @@
         <v>0</v>
       </c>
       <c r="K818" t="n">
-        <v>270</v>
+        <v>264.76</v>
       </c>
       <c r="L818" t="n">
         <v>5.24</v>
@@ -78453,8 +79055,10 @@
         </is>
       </c>
       <c r="Q818" t="inlineStr"/>
-      <c r="R818" t="n">
-        <v>153728</v>
+      <c r="R818" t="inlineStr">
+        <is>
+          <t>153728</t>
+        </is>
       </c>
       <c r="S818" t="inlineStr"/>
       <c r="T818" t="inlineStr">
@@ -78532,7 +79136,7 @@
         <v>0</v>
       </c>
       <c r="K819" t="n">
-        <v>30</v>
+        <v>29.49</v>
       </c>
       <c r="L819" t="n">
         <v>0.51</v>
@@ -78550,8 +79154,10 @@
         </is>
       </c>
       <c r="Q819" t="inlineStr"/>
-      <c r="R819" t="n">
-        <v>273262</v>
+      <c r="R819" t="inlineStr">
+        <is>
+          <t>273262</t>
+        </is>
       </c>
       <c r="S819" t="inlineStr"/>
       <c r="T819" t="inlineStr">
@@ -78629,7 +79235,7 @@
         <v>0</v>
       </c>
       <c r="K820" t="n">
-        <v>100</v>
+        <v>98.31</v>
       </c>
       <c r="L820" t="n">
         <v>1.69</v>
@@ -78643,8 +79249,10 @@
       <c r="O820" t="inlineStr"/>
       <c r="P820" t="inlineStr"/>
       <c r="Q820" t="inlineStr"/>
-      <c r="R820" t="n">
-        <v>273262</v>
+      <c r="R820" t="inlineStr">
+        <is>
+          <t>273262</t>
+        </is>
       </c>
       <c r="S820" t="inlineStr"/>
       <c r="T820" t="inlineStr">
@@ -80057,11 +80665,15 @@
       </c>
       <c r="O835" t="inlineStr"/>
       <c r="P835" t="inlineStr"/>
-      <c r="Q835" t="n">
-        <v>18</v>
-      </c>
-      <c r="R835" t="n">
-        <v>774956</v>
+      <c r="Q835" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R835" t="inlineStr">
+        <is>
+          <t>774956</t>
+        </is>
       </c>
       <c r="S835" t="inlineStr">
         <is>
@@ -80724,11 +81336,15 @@
       </c>
       <c r="O842" t="inlineStr"/>
       <c r="P842" t="inlineStr"/>
-      <c r="Q842" t="n">
-        <v>3</v>
-      </c>
-      <c r="R842" t="n">
-        <v>7950286</v>
+      <c r="Q842" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R842" t="inlineStr">
+        <is>
+          <t>7950286</t>
+        </is>
       </c>
       <c r="S842" t="inlineStr">
         <is>
@@ -80824,8 +81440,10 @@
       <c r="O843" t="inlineStr"/>
       <c r="P843" t="inlineStr"/>
       <c r="Q843" t="inlineStr"/>
-      <c r="R843" t="n">
-        <v>9136480</v>
+      <c r="R843" t="inlineStr">
+        <is>
+          <t>9136480</t>
+        </is>
       </c>
       <c r="S843" t="inlineStr"/>
       <c r="T843" t="inlineStr">
@@ -81015,7 +81633,7 @@
       </c>
       <c r="U845" t="inlineStr">
         <is>
-          <t>Venda Direta</t>
+          <t>Cortesia Cred</t>
         </is>
       </c>
       <c r="V845" t="inlineStr">
@@ -81577,11 +82195,15 @@
       </c>
       <c r="O851" t="inlineStr"/>
       <c r="P851" t="inlineStr"/>
-      <c r="Q851" t="n">
-        <v>3</v>
-      </c>
-      <c r="R851" t="n">
-        <v>10251952</v>
+      <c r="Q851" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R851" t="inlineStr">
+        <is>
+          <t>10251952</t>
+        </is>
       </c>
       <c r="S851" t="inlineStr">
         <is>
@@ -81677,8 +82299,10 @@
       <c r="O852" t="inlineStr"/>
       <c r="P852" t="inlineStr"/>
       <c r="Q852" t="inlineStr"/>
-      <c r="R852" t="n">
-        <v>273268</v>
+      <c r="R852" t="inlineStr">
+        <is>
+          <t>273268</t>
+        </is>
       </c>
       <c r="S852" t="inlineStr"/>
       <c r="T852" t="inlineStr">
@@ -81769,8 +82393,10 @@
       </c>
       <c r="O853" t="inlineStr"/>
       <c r="P853" t="inlineStr"/>
-      <c r="Q853" t="n">
-        <v>12</v>
+      <c r="Q853" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="R853" t="inlineStr"/>
       <c r="S853" t="inlineStr">
@@ -81866,11 +82492,15 @@
       </c>
       <c r="O854" t="inlineStr"/>
       <c r="P854" t="inlineStr"/>
-      <c r="Q854" t="n">
-        <v>5</v>
-      </c>
-      <c r="R854" t="n">
-        <v>11935500</v>
+      <c r="Q854" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R854" t="inlineStr">
+        <is>
+          <t>11935500</t>
+        </is>
       </c>
       <c r="S854" t="inlineStr">
         <is>
@@ -83116,8 +83746,10 @@
         </is>
       </c>
       <c r="Q867" t="inlineStr"/>
-      <c r="R867" t="n">
-        <v>273271</v>
+      <c r="R867" t="inlineStr">
+        <is>
+          <t>273271</t>
+        </is>
       </c>
       <c r="S867" t="inlineStr"/>
       <c r="T867" t="inlineStr">
@@ -83584,11 +84216,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q872" t="n">
-        <v>18</v>
-      </c>
-      <c r="R872" t="n">
-        <v>774959</v>
+      <c r="Q872" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>774959</t>
+        </is>
       </c>
       <c r="S872" t="inlineStr">
         <is>
@@ -83687,11 +84323,15 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="Q873" t="n">
-        <v>8</v>
-      </c>
-      <c r="R873" t="n">
-        <v>16388888</v>
+      <c r="Q873" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R873" t="inlineStr">
+        <is>
+          <t>16388888</t>
+        </is>
       </c>
       <c r="S873" t="inlineStr">
         <is>
@@ -84078,8 +84718,10 @@
       <c r="O877" t="inlineStr"/>
       <c r="P877" t="inlineStr"/>
       <c r="Q877" t="inlineStr"/>
-      <c r="R877" t="n">
-        <v>16504878</v>
+      <c r="R877" t="inlineStr">
+        <is>
+          <t>16504878</t>
+        </is>
       </c>
       <c r="S877" t="inlineStr"/>
       <c r="T877" t="inlineStr">
@@ -84272,8 +84914,10 @@
         </is>
       </c>
       <c r="Q879" t="inlineStr"/>
-      <c r="R879" t="n">
-        <v>273274</v>
+      <c r="R879" t="inlineStr">
+        <is>
+          <t>273274</t>
+        </is>
       </c>
       <c r="S879" t="inlineStr"/>
       <c r="T879" t="inlineStr">
@@ -84319,41 +84963,43 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>3341</v>
+        <v>28472</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>Flavia Silva Nunes</t>
+          <t>Maria das Gracas Farias Barreto Souza</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
         <is>
-          <t>025.641.895-04</t>
+          <t>084.828.105-53</t>
         </is>
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>013394 2/12</t>
+          <t>013963 1/32</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>Transferencia Bancaria</t>
+          <t>Credito em Conta</t>
         </is>
       </c>
       <c r="H880" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="I880" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="J880" t="n">
         <v>0</v>
       </c>
       <c r="K880" t="n">
-        <v>150</v>
-      </c>
-      <c r="L880" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
       <c r="M880" t="n">
         <v>0</v>
       </c>
@@ -84371,35 +85017,35 @@
       <c r="S880" t="inlineStr"/>
       <c r="T880" t="inlineStr">
         <is>
-          <t xml:space="preserve">VANINE PJ_INTER </t>
+          <t>CARTAO NBK PF</t>
         </is>
       </c>
       <c r="U880" t="inlineStr">
         <is>
-          <t>Manutencao Ortodontica</t>
+          <t>Follow-UP</t>
         </is>
       </c>
       <c r="V880" t="inlineStr">
         <is>
-          <t>Lincoln DE Andrade Fonseca</t>
+          <t>Raylane Salles</t>
         </is>
       </c>
       <c r="W880" t="inlineStr">
         <is>
-          <t>09/10/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="X880" t="inlineStr"/>
       <c r="Y880" t="inlineStr">
         <is>
-          <t>Vanine Meneses Calheira PJ INTER</t>
+          <t>BOLETO LINCOLN NUBANK PF</t>
         </is>
       </c>
       <c r="Z880" t="inlineStr"/>
       <c r="AA880" t="inlineStr"/>
       <c r="AB880" t="inlineStr">
         <is>
-          <t>Fabiana Souza</t>
+          <t>Dra. Raylane Salles</t>
         </is>
       </c>
       <c r="AC880" t="inlineStr"/>
@@ -84416,42 +85062,42 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>28472</v>
+        <v>24051</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>Maria das Gracas Farias Barreto Souza</t>
+          <t>Raniere Bomfim Souza Santos</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
         <is>
-          <t>084.828.105-53</t>
+          <t>794.008.335-04</t>
         </is>
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>013963 1/32</t>
+          <t>014019 1/12</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>Credito em Conta</t>
+          <t>Cartao de Credito - Parcelado</t>
         </is>
       </c>
       <c r="H881" t="n">
-        <v>2000</v>
+        <v>1799</v>
       </c>
       <c r="I881" t="n">
-        <v>2000</v>
+        <v>1799</v>
       </c>
       <c r="J881" t="n">
         <v>0</v>
       </c>
       <c r="K881" t="n">
-        <v>2000</v>
+        <v>1799</v>
       </c>
       <c r="L881" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="M881" t="n">
         <v>0</v>
@@ -84460,45 +85106,49 @@
         <v>0</v>
       </c>
       <c r="O881" t="inlineStr"/>
-      <c r="P881" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="Q881" t="inlineStr"/>
-      <c r="R881" t="inlineStr"/>
-      <c r="S881" t="inlineStr"/>
+      <c r="P881" t="inlineStr"/>
+      <c r="Q881" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R881" t="inlineStr">
+        <is>
+          <t>20533735</t>
+        </is>
+      </c>
+      <c r="S881" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
       <c r="T881" t="inlineStr">
         <is>
-          <t>CARTAO NBK PF</t>
+          <t>TAISA PJ_NBK</t>
         </is>
       </c>
       <c r="U881" t="inlineStr">
         <is>
-          <t>Follow-UP</t>
+          <t>Resgate</t>
         </is>
       </c>
       <c r="V881" t="inlineStr">
         <is>
-          <t>Raylane Salles</t>
+          <t>Marianna Estrella</t>
         </is>
       </c>
       <c r="W881" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>15/10/2025</t>
         </is>
       </c>
       <c r="X881" t="inlineStr"/>
-      <c r="Y881" t="inlineStr">
-        <is>
-          <t>BOLETO LINCOLN NUBANK PF</t>
-        </is>
-      </c>
+      <c r="Y881" t="inlineStr"/>
       <c r="Z881" t="inlineStr"/>
       <c r="AA881" t="inlineStr"/>
       <c r="AB881" t="inlineStr">
         <is>
-          <t>Dra. Raylane Salles</t>
+          <t>Jessica Alves</t>
         </is>
       </c>
       <c r="AC881" t="inlineStr"/>
@@ -84515,43 +85165,41 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>24051</v>
+        <v>26585</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>Raniere Bomfim Souza Santos</t>
+          <t>Italo Gabriel Souza Santana Santos</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>794.008.335-04</t>
+          <t>097.595.075-44</t>
         </is>
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>014019 1/12</t>
+          <t>014020 1/1</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>Cartao de Credito - Parcelado</t>
+          <t>Credito em Conta</t>
         </is>
       </c>
       <c r="H882" t="n">
-        <v>1799</v>
+        <v>250</v>
       </c>
       <c r="I882" t="n">
-        <v>1799</v>
+        <v>250</v>
       </c>
       <c r="J882" t="n">
         <v>0</v>
       </c>
       <c r="K882" t="n">
-        <v>1799</v>
-      </c>
-      <c r="L882" t="n">
-        <v>4.35</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="L882" t="inlineStr"/>
       <c r="M882" t="n">
         <v>0</v>
       </c>
@@ -84560,25 +85208,17 @@
       </c>
       <c r="O882" t="inlineStr"/>
       <c r="P882" t="inlineStr"/>
-      <c r="Q882" t="n">
-        <v>12</v>
-      </c>
-      <c r="R882" t="n">
-        <v>20533735</v>
-      </c>
-      <c r="S882" t="inlineStr">
-        <is>
-          <t>17/11/2025</t>
-        </is>
-      </c>
+      <c r="Q882" t="inlineStr"/>
+      <c r="R882" t="inlineStr"/>
+      <c r="S882" t="inlineStr"/>
       <c r="T882" t="inlineStr">
         <is>
-          <t>TAISA PJ_NBK</t>
+          <t xml:space="preserve">VANINE PJ_INTER </t>
         </is>
       </c>
       <c r="U882" t="inlineStr">
         <is>
-          <t>Resgate</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="V882" t="inlineStr">
@@ -84592,15 +85232,4182 @@
         </is>
       </c>
       <c r="X882" t="inlineStr"/>
-      <c r="Y882" t="inlineStr"/>
+      <c r="Y882" t="inlineStr">
+        <is>
+          <t>Vanine Meneses Calheira PJ INTER</t>
+        </is>
+      </c>
       <c r="Z882" t="inlineStr"/>
       <c r="AA882" t="inlineStr"/>
       <c r="AB882" t="inlineStr">
         <is>
-          <t>Jessica Alves</t>
+          <t>Samuel Oliveira</t>
         </is>
       </c>
       <c r="AC882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>23669</v>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Sophia Menezes</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>073.867.235-12</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>013509 2/12</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H883" t="n">
+        <v>170</v>
+      </c>
+      <c r="I883" t="n">
+        <v>170</v>
+      </c>
+      <c r="J883" t="n">
+        <v>0</v>
+      </c>
+      <c r="K883" t="n">
+        <v>170</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>0</v>
+      </c>
+      <c r="O883" t="inlineStr"/>
+      <c r="P883" t="inlineStr"/>
+      <c r="Q883" t="inlineStr"/>
+      <c r="R883" t="inlineStr"/>
+      <c r="S883" t="inlineStr"/>
+      <c r="T883" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U883" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V883" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W883" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="X883" t="inlineStr"/>
+      <c r="Y883" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marschall Induatria Comercio Importacao </t>
+        </is>
+      </c>
+      <c r="Z883" t="inlineStr"/>
+      <c r="AA883" t="inlineStr"/>
+      <c r="AB883" t="inlineStr"/>
+      <c r="AC883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>3341</v>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>Flavia Silva Nunes</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>025.641.895-04</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>013394 2/12</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H884" t="n">
+        <v>150</v>
+      </c>
+      <c r="I884" t="n">
+        <v>150</v>
+      </c>
+      <c r="J884" t="n">
+        <v>0</v>
+      </c>
+      <c r="K884" t="n">
+        <v>150</v>
+      </c>
+      <c r="L884" t="inlineStr"/>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>0</v>
+      </c>
+      <c r="O884" t="inlineStr"/>
+      <c r="P884" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q884" t="inlineStr"/>
+      <c r="R884" t="inlineStr"/>
+      <c r="S884" t="inlineStr"/>
+      <c r="T884" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VANINE PJ_INTER </t>
+        </is>
+      </c>
+      <c r="U884" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V884" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W884" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="X884" t="inlineStr"/>
+      <c r="Y884" t="inlineStr">
+        <is>
+          <t>Vanine Meneses Calheira PJ INTER</t>
+        </is>
+      </c>
+      <c r="Z884" t="inlineStr"/>
+      <c r="AA884" t="inlineStr"/>
+      <c r="AB884" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>5104</v>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Jose Valdelio Gama Machado</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>112.365.905-20</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>014021 1/1</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="H885" t="n">
+        <v>400</v>
+      </c>
+      <c r="I885" t="n">
+        <v>400</v>
+      </c>
+      <c r="J885" t="n">
+        <v>0</v>
+      </c>
+      <c r="K885" t="n">
+        <v>400</v>
+      </c>
+      <c r="L885" t="inlineStr"/>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>0</v>
+      </c>
+      <c r="O885" t="inlineStr"/>
+      <c r="P885" t="inlineStr"/>
+      <c r="Q885" t="inlineStr"/>
+      <c r="R885" t="inlineStr"/>
+      <c r="S885" t="inlineStr"/>
+      <c r="T885" t="inlineStr">
+        <is>
+          <t>CAIXA ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="U885" t="inlineStr">
+        <is>
+          <t>Resgate</t>
+        </is>
+      </c>
+      <c r="V885" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W885" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="X885" t="inlineStr"/>
+      <c r="Y885" t="inlineStr"/>
+      <c r="Z885" t="inlineStr"/>
+      <c r="AA885" t="inlineStr"/>
+      <c r="AB885" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>27090</v>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>Helio Bento de Santana</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>252.967.445-00</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>010905 6/31</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H886" t="n">
+        <v>500</v>
+      </c>
+      <c r="I886" t="n">
+        <v>500</v>
+      </c>
+      <c r="J886" t="n">
+        <v>0</v>
+      </c>
+      <c r="K886" t="n">
+        <v>500</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>0</v>
+      </c>
+      <c r="O886" t="inlineStr"/>
+      <c r="P886" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q886" t="inlineStr"/>
+      <c r="R886" t="inlineStr"/>
+      <c r="S886" t="inlineStr"/>
+      <c r="T886" t="inlineStr">
+        <is>
+          <t>STHEFANNY PJ_INTER</t>
+        </is>
+      </c>
+      <c r="U886" t="inlineStr">
+        <is>
+          <t>Promissorias</t>
+        </is>
+      </c>
+      <c r="V886" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W886" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="X886" t="inlineStr"/>
+      <c r="Y886" t="inlineStr">
+        <is>
+          <t>Sthefanny PJ</t>
+        </is>
+      </c>
+      <c r="Z886" t="inlineStr"/>
+      <c r="AA886" t="inlineStr"/>
+      <c r="AB886" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr"/>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr"/>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H887" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I887" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J887" t="n">
+        <v>0</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>0</v>
+      </c>
+      <c r="O887" t="inlineStr"/>
+      <c r="P887" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q887" t="inlineStr"/>
+      <c r="R887" t="inlineStr"/>
+      <c r="S887" t="inlineStr"/>
+      <c r="T887" t="inlineStr">
+        <is>
+          <t>STHEFANNY PF_INTER</t>
+        </is>
+      </c>
+      <c r="U887" t="inlineStr">
+        <is>
+          <t>Correcao de lancamento</t>
+        </is>
+      </c>
+      <c r="V887" t="inlineStr"/>
+      <c r="W887" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="X887" t="inlineStr"/>
+      <c r="Y887" t="inlineStr">
+        <is>
+          <t>Correcao de Lancamento</t>
+        </is>
+      </c>
+      <c r="Z887" t="inlineStr"/>
+      <c r="AA887" t="inlineStr"/>
+      <c r="AB887" t="inlineStr"/>
+      <c r="AC887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>28431</v>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Marlene Soares Santos Mota</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>852.721.595-00</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>013838 1/1</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H888" t="n">
+        <v>272</v>
+      </c>
+      <c r="I888" t="n">
+        <v>272</v>
+      </c>
+      <c r="J888" t="n">
+        <v>0</v>
+      </c>
+      <c r="K888" t="n">
+        <v>272</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>0</v>
+      </c>
+      <c r="O888" t="inlineStr"/>
+      <c r="P888" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q888" t="inlineStr"/>
+      <c r="R888" t="inlineStr"/>
+      <c r="S888" t="inlineStr"/>
+      <c r="T888" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U888" t="inlineStr">
+        <is>
+          <t>Cortesia Cred</t>
+        </is>
+      </c>
+      <c r="V888" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W888" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="X888" t="inlineStr"/>
+      <c r="Y888" t="inlineStr">
+        <is>
+          <t>CORTESIA, Paciente ganhou como cortesia por ter fechado o tratamento sem desconto.</t>
+        </is>
+      </c>
+      <c r="Z888" t="inlineStr"/>
+      <c r="AA888" t="inlineStr"/>
+      <c r="AB888" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Recebimento Parcial</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>5572</v>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Keylla Raquel Lima Bomfim</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>018.254.595-41</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>011385 1/10</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Parcelado</t>
+        </is>
+      </c>
+      <c r="H889" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I889" t="n">
+        <v>800</v>
+      </c>
+      <c r="J889" t="n">
+        <v>0</v>
+      </c>
+      <c r="K889" t="n">
+        <v>800</v>
+      </c>
+      <c r="L889" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>0</v>
+      </c>
+      <c r="O889" t="inlineStr"/>
+      <c r="P889" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q889" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R889" t="inlineStr">
+        <is>
+          <t>32778730</t>
+        </is>
+      </c>
+      <c r="S889" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="T889" t="inlineStr">
+        <is>
+          <t>TAISA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U889" t="inlineStr">
+        <is>
+          <t>Follow-UP</t>
+        </is>
+      </c>
+      <c r="V889" t="inlineStr">
+        <is>
+          <t>Marianna Estrella</t>
+        </is>
+      </c>
+      <c r="W889" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="X889" t="inlineStr"/>
+      <c r="Y889" t="inlineStr"/>
+      <c r="Z889" t="inlineStr"/>
+      <c r="AA889" t="inlineStr"/>
+      <c r="AB889" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>5572</v>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Keylla Raquel Lima Bomfim</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>018.254.595-41</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>012711 3/12</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H890" t="n">
+        <v>185</v>
+      </c>
+      <c r="I890" t="n">
+        <v>185</v>
+      </c>
+      <c r="J890" t="n">
+        <v>0</v>
+      </c>
+      <c r="K890" t="n">
+        <v>185</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>0</v>
+      </c>
+      <c r="O890" t="inlineStr"/>
+      <c r="P890" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q890" t="inlineStr"/>
+      <c r="R890" t="inlineStr"/>
+      <c r="S890" t="inlineStr"/>
+      <c r="T890" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U890" t="inlineStr">
+        <is>
+          <t>Cortesia Cred</t>
+        </is>
+      </c>
+      <c r="V890" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W890" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="X890" t="inlineStr"/>
+      <c r="Y890" t="inlineStr">
+        <is>
+          <t>NAO PAGA MANUTENCAO!!!!!</t>
+        </is>
+      </c>
+      <c r="Z890" t="inlineStr"/>
+      <c r="AA890" t="inlineStr"/>
+      <c r="AB890" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>27272</v>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Gilmar Oliveira da Silva Junior</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>077.463.845-10</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>012527 4/12</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>Cartao de Debito</t>
+        </is>
+      </c>
+      <c r="H891" t="n">
+        <v>170</v>
+      </c>
+      <c r="I891" t="n">
+        <v>170</v>
+      </c>
+      <c r="J891" t="n">
+        <v>0</v>
+      </c>
+      <c r="K891" t="n">
+        <v>170</v>
+      </c>
+      <c r="L891" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>0</v>
+      </c>
+      <c r="O891" t="inlineStr"/>
+      <c r="P891" t="inlineStr"/>
+      <c r="Q891" t="inlineStr"/>
+      <c r="R891" t="inlineStr">
+        <is>
+          <t>273277</t>
+        </is>
+      </c>
+      <c r="S891" t="inlineStr"/>
+      <c r="T891" t="inlineStr">
+        <is>
+          <t>FELIPE PJ_INTER</t>
+        </is>
+      </c>
+      <c r="U891" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V891" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W891" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X891" t="inlineStr"/>
+      <c r="Y891" t="inlineStr"/>
+      <c r="Z891" t="inlineStr"/>
+      <c r="AA891" t="inlineStr"/>
+      <c r="AB891" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>27075</v>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>Livia Oliveira</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>037.028.535-29</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>012385 4/12</t>
+        </is>
+      </c>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="H892" t="n">
+        <v>170</v>
+      </c>
+      <c r="I892" t="n">
+        <v>150</v>
+      </c>
+      <c r="J892" t="n">
+        <v>0</v>
+      </c>
+      <c r="K892" t="n">
+        <v>150</v>
+      </c>
+      <c r="L892" t="inlineStr"/>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>0</v>
+      </c>
+      <c r="O892" t="inlineStr"/>
+      <c r="P892" t="inlineStr">
+        <is>
+          <t>20,00</t>
+        </is>
+      </c>
+      <c r="Q892" t="inlineStr"/>
+      <c r="R892" t="inlineStr"/>
+      <c r="S892" t="inlineStr"/>
+      <c r="T892" t="inlineStr">
+        <is>
+          <t>CAIXA ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="U892" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V892" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W892" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X892" t="inlineStr"/>
+      <c r="Y892" t="inlineStr"/>
+      <c r="Z892" t="inlineStr"/>
+      <c r="AA892" t="inlineStr"/>
+      <c r="AB892" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>27410</v>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>Alessandra Lima Pereira</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>135.181.627-64</t>
+        </is>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>012887 3/12</t>
+        </is>
+      </c>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="H893" t="n">
+        <v>150</v>
+      </c>
+      <c r="I893" t="n">
+        <v>150</v>
+      </c>
+      <c r="J893" t="n">
+        <v>0</v>
+      </c>
+      <c r="K893" t="n">
+        <v>150</v>
+      </c>
+      <c r="L893" t="inlineStr"/>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>0</v>
+      </c>
+      <c r="O893" t="inlineStr"/>
+      <c r="P893" t="inlineStr"/>
+      <c r="Q893" t="inlineStr"/>
+      <c r="R893" t="inlineStr"/>
+      <c r="S893" t="inlineStr"/>
+      <c r="T893" t="inlineStr">
+        <is>
+          <t>CAIXA ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="U893" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V893" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W893" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X893" t="inlineStr"/>
+      <c r="Y893" t="inlineStr"/>
+      <c r="Z893" t="inlineStr"/>
+      <c r="AA893" t="inlineStr"/>
+      <c r="AB893" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>26985</v>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Marcionilia de Fatima Cabral Moraes Monteiro</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>347.572.875-34</t>
+        </is>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>012880 3/12</t>
+        </is>
+      </c>
+      <c r="G894" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H894" t="n">
+        <v>185</v>
+      </c>
+      <c r="I894" t="n">
+        <v>185</v>
+      </c>
+      <c r="J894" t="n">
+        <v>0</v>
+      </c>
+      <c r="K894" t="n">
+        <v>185</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>0</v>
+      </c>
+      <c r="O894" t="inlineStr"/>
+      <c r="P894" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q894" t="inlineStr"/>
+      <c r="R894" t="inlineStr"/>
+      <c r="S894" t="inlineStr"/>
+      <c r="T894" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U894" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V894" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W894" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="X894" t="inlineStr"/>
+      <c r="Y894" t="inlineStr">
+        <is>
+          <t>NAO PAGA MANUTENCAO!!!!</t>
+        </is>
+      </c>
+      <c r="Z894" t="inlineStr"/>
+      <c r="AA894" t="inlineStr"/>
+      <c r="AB894" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>27895</v>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Heron Mendes Guimaraes Junior</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>366.963.155-00</t>
+        </is>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>014022 1/12</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H895" t="n">
+        <v>185</v>
+      </c>
+      <c r="I895" t="n">
+        <v>185</v>
+      </c>
+      <c r="J895" t="n">
+        <v>0</v>
+      </c>
+      <c r="K895" t="n">
+        <v>185</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>0</v>
+      </c>
+      <c r="N895" t="n">
+        <v>0</v>
+      </c>
+      <c r="O895" t="inlineStr"/>
+      <c r="P895" t="inlineStr"/>
+      <c r="Q895" t="inlineStr"/>
+      <c r="R895" t="inlineStr"/>
+      <c r="S895" t="inlineStr"/>
+      <c r="T895" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U895" t="inlineStr">
+        <is>
+          <t>Cortesia Cred</t>
+        </is>
+      </c>
+      <c r="V895" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W895" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X895" t="inlineStr"/>
+      <c r="Y895" t="inlineStr">
+        <is>
+          <t>NAO PAGA MANUTENCAO!!!!</t>
+        </is>
+      </c>
+      <c r="Z895" t="inlineStr">
+        <is>
+          <t>Marcela Souza Guimaraes</t>
+        </is>
+      </c>
+      <c r="AA895" t="inlineStr">
+        <is>
+          <t>052.061.325-27</t>
+        </is>
+      </c>
+      <c r="AB895" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>9048</v>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Rosemary Costa Amaral</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>014.187.075-38</t>
+        </is>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>012230 3/12</t>
+        </is>
+      </c>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H896" t="n">
+        <v>185</v>
+      </c>
+      <c r="I896" t="n">
+        <v>185</v>
+      </c>
+      <c r="J896" t="n">
+        <v>0</v>
+      </c>
+      <c r="K896" t="n">
+        <v>185</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>0</v>
+      </c>
+      <c r="O896" t="inlineStr"/>
+      <c r="P896" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q896" t="inlineStr"/>
+      <c r="R896" t="inlineStr"/>
+      <c r="S896" t="inlineStr"/>
+      <c r="T896" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U896" t="inlineStr">
+        <is>
+          <t>Cortesia Cred</t>
+        </is>
+      </c>
+      <c r="V896" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W896" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="X896" t="inlineStr"/>
+      <c r="Y896" t="inlineStr">
+        <is>
+          <t>MANUTENCOES DADAS POR DR. LINCOLN CUSTOS SOMENTE NA REMOCAO</t>
+        </is>
+      </c>
+      <c r="Z896" t="inlineStr"/>
+      <c r="AA896" t="inlineStr"/>
+      <c r="AB896" t="inlineStr">
+        <is>
+          <t>Rosana</t>
+        </is>
+      </c>
+      <c r="AC896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Recebimento Parcial</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>28525</v>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Thaylla Ribeiro Werneck</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>185.130.247-67</t>
+        </is>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>014023 1/1</t>
+        </is>
+      </c>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="H897" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I897" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J897" t="n">
+        <v>0</v>
+      </c>
+      <c r="K897" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L897" t="inlineStr"/>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>0</v>
+      </c>
+      <c r="O897" t="inlineStr"/>
+      <c r="P897" t="inlineStr"/>
+      <c r="Q897" t="inlineStr"/>
+      <c r="R897" t="inlineStr"/>
+      <c r="S897" t="inlineStr"/>
+      <c r="T897" t="inlineStr">
+        <is>
+          <t>CAIXA ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="U897" t="inlineStr">
+        <is>
+          <t>Follow-UP</t>
+        </is>
+      </c>
+      <c r="V897" t="inlineStr">
+        <is>
+          <t>Marianna Estrella</t>
+        </is>
+      </c>
+      <c r="W897" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X897" t="inlineStr"/>
+      <c r="Y897" t="inlineStr"/>
+      <c r="Z897" t="inlineStr"/>
+      <c r="AA897" t="inlineStr"/>
+      <c r="AB897" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>26985</v>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Marcionilia de Fatima Cabral Moraes Monteiro</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>347.572.875-34</t>
+        </is>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>014024 1/1</t>
+        </is>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H898" t="n">
+        <v>250</v>
+      </c>
+      <c r="I898" t="n">
+        <v>250</v>
+      </c>
+      <c r="J898" t="n">
+        <v>0</v>
+      </c>
+      <c r="K898" t="n">
+        <v>250</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>0</v>
+      </c>
+      <c r="O898" t="inlineStr"/>
+      <c r="P898" t="inlineStr"/>
+      <c r="Q898" t="inlineStr"/>
+      <c r="R898" t="inlineStr"/>
+      <c r="S898" t="inlineStr"/>
+      <c r="T898" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U898" t="inlineStr">
+        <is>
+          <t>Resgate</t>
+        </is>
+      </c>
+      <c r="V898" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W898" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X898" t="inlineStr"/>
+      <c r="Y898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marschall Induatria Comercio Importacao </t>
+        </is>
+      </c>
+      <c r="Z898" t="inlineStr"/>
+      <c r="AA898" t="inlineStr"/>
+      <c r="AB898" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>8113</v>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Oldemar Vernek Almeida Silva</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>029.559.685-60</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>009885 10/12</t>
+        </is>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H899" t="n">
+        <v>165</v>
+      </c>
+      <c r="I899" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="J899" t="n">
+        <v>0</v>
+      </c>
+      <c r="K899" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>0</v>
+      </c>
+      <c r="O899" t="inlineStr"/>
+      <c r="P899" t="inlineStr">
+        <is>
+          <t>8,25</t>
+        </is>
+      </c>
+      <c r="Q899" t="inlineStr"/>
+      <c r="R899" t="inlineStr"/>
+      <c r="S899" t="inlineStr"/>
+      <c r="T899" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U899" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V899" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W899" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X899" t="inlineStr"/>
+      <c r="Y899" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marschall Induatria Comercio Importacao </t>
+        </is>
+      </c>
+      <c r="Z899" t="inlineStr"/>
+      <c r="AA899" t="inlineStr"/>
+      <c r="AB899" t="inlineStr">
+        <is>
+          <t>Asb Maria</t>
+        </is>
+      </c>
+      <c r="AC899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>28512</v>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Ronaldo Oliveira Santos</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>146.939.468-50</t>
+        </is>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>014025 1/10</t>
+        </is>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Parcelado</t>
+        </is>
+      </c>
+      <c r="H900" t="n">
+        <v>3542</v>
+      </c>
+      <c r="I900" t="n">
+        <v>3542</v>
+      </c>
+      <c r="J900" t="n">
+        <v>0</v>
+      </c>
+      <c r="K900" t="n">
+        <v>3542</v>
+      </c>
+      <c r="L900" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>0</v>
+      </c>
+      <c r="O900" t="inlineStr"/>
+      <c r="P900" t="inlineStr"/>
+      <c r="Q900" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R900" t="inlineStr">
+        <is>
+          <t>12810444</t>
+        </is>
+      </c>
+      <c r="S900" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="T900" t="inlineStr">
+        <is>
+          <t>TAISA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U900" t="inlineStr">
+        <is>
+          <t>Follow-UP</t>
+        </is>
+      </c>
+      <c r="V900" t="inlineStr">
+        <is>
+          <t>Marianna Estrella</t>
+        </is>
+      </c>
+      <c r="W900" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="X900" t="inlineStr"/>
+      <c r="Y900" t="inlineStr"/>
+      <c r="Z900" t="inlineStr"/>
+      <c r="AA900" t="inlineStr"/>
+      <c r="AB900" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>26871</v>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Erika Torres Amaral</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>052.806.075-92</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>010456 8/11</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H901" t="n">
+        <v>2390</v>
+      </c>
+      <c r="I901" t="n">
+        <v>2390</v>
+      </c>
+      <c r="J901" t="n">
+        <v>0</v>
+      </c>
+      <c r="K901" t="n">
+        <v>2390</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>0</v>
+      </c>
+      <c r="O901" t="inlineStr"/>
+      <c r="P901" t="inlineStr"/>
+      <c r="Q901" t="inlineStr"/>
+      <c r="R901" t="inlineStr"/>
+      <c r="S901" t="inlineStr"/>
+      <c r="T901" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U901" t="inlineStr">
+        <is>
+          <t>Promissorias</t>
+        </is>
+      </c>
+      <c r="V901" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W901" t="inlineStr">
+        <is>
+          <t>20/10/2025</t>
+        </is>
+      </c>
+      <c r="X901" t="inlineStr"/>
+      <c r="Y901" t="inlineStr">
+        <is>
+          <t>Britocar</t>
+        </is>
+      </c>
+      <c r="Z901" t="inlineStr"/>
+      <c r="AA901" t="inlineStr"/>
+      <c r="AB901" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>24884</v>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Moises Viana do Nascimento</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>047.696.745-70</t>
+        </is>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>013513 1/1</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H902" t="n">
+        <v>1368</v>
+      </c>
+      <c r="I902" t="n">
+        <v>1368</v>
+      </c>
+      <c r="J902" t="n">
+        <v>0</v>
+      </c>
+      <c r="K902" t="n">
+        <v>1368</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>0</v>
+      </c>
+      <c r="O902" t="inlineStr"/>
+      <c r="P902" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q902" t="inlineStr"/>
+      <c r="R902" t="inlineStr"/>
+      <c r="S902" t="inlineStr"/>
+      <c r="T902" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U902" t="inlineStr">
+        <is>
+          <t>Cortesia Cred</t>
+        </is>
+      </c>
+      <c r="V902" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W902" t="inlineStr">
+        <is>
+          <t>16/09/2025</t>
+        </is>
+      </c>
+      <c r="X902" t="inlineStr"/>
+      <c r="Y902" t="inlineStr">
+        <is>
+          <t>Cortesia concedida por Dr.Lincoln dia 16/9/25 no caixa, pois o paciente ja vai remover e amigo dele.</t>
+        </is>
+      </c>
+      <c r="Z902" t="inlineStr"/>
+      <c r="AA902" t="inlineStr"/>
+      <c r="AB902" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>8679</v>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>Renata Santos</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>019.649.155-03</t>
+        </is>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>014026 1/10</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Parcelado</t>
+        </is>
+      </c>
+      <c r="H903" t="n">
+        <v>1650</v>
+      </c>
+      <c r="I903" t="n">
+        <v>1650</v>
+      </c>
+      <c r="J903" t="n">
+        <v>0</v>
+      </c>
+      <c r="K903" t="n">
+        <v>1650</v>
+      </c>
+      <c r="L903" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>0</v>
+      </c>
+      <c r="O903" t="inlineStr"/>
+      <c r="P903" t="inlineStr"/>
+      <c r="Q903" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R903" t="inlineStr">
+        <is>
+          <t>12810444</t>
+        </is>
+      </c>
+      <c r="S903" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="T903" t="inlineStr">
+        <is>
+          <t>TAISA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U903" t="inlineStr">
+        <is>
+          <t>Resgate</t>
+        </is>
+      </c>
+      <c r="V903" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W903" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X903" t="inlineStr"/>
+      <c r="Y903" t="inlineStr"/>
+      <c r="Z903" t="inlineStr"/>
+      <c r="AA903" t="inlineStr"/>
+      <c r="AB903" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Edna Evangelista dos Santos</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>873.417.865-15</t>
+        </is>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>013453 2/12</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>Cartao de Debito</t>
+        </is>
+      </c>
+      <c r="H904" t="n">
+        <v>100</v>
+      </c>
+      <c r="I904" t="n">
+        <v>100</v>
+      </c>
+      <c r="J904" t="n">
+        <v>0</v>
+      </c>
+      <c r="K904" t="n">
+        <v>100</v>
+      </c>
+      <c r="L904" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>0</v>
+      </c>
+      <c r="O904" t="inlineStr"/>
+      <c r="P904" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q904" t="inlineStr"/>
+      <c r="R904" t="inlineStr">
+        <is>
+          <t>273280</t>
+        </is>
+      </c>
+      <c r="S904" t="inlineStr"/>
+      <c r="T904" t="inlineStr">
+        <is>
+          <t>FELIPE PJ_INTER</t>
+        </is>
+      </c>
+      <c r="U904" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V904" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W904" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="X904" t="inlineStr"/>
+      <c r="Y904" t="inlineStr"/>
+      <c r="Z904" t="inlineStr"/>
+      <c r="AA904" t="inlineStr"/>
+      <c r="AB904" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>28527</v>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Alberto da Paixao Nascimento</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>034.416.525-68</t>
+        </is>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>014027 1/10</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Parcelado</t>
+        </is>
+      </c>
+      <c r="H905" t="n">
+        <v>4700</v>
+      </c>
+      <c r="I905" t="n">
+        <v>4700</v>
+      </c>
+      <c r="J905" t="n">
+        <v>0</v>
+      </c>
+      <c r="K905" t="n">
+        <v>4700</v>
+      </c>
+      <c r="L905" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>0</v>
+      </c>
+      <c r="O905" t="inlineStr"/>
+      <c r="P905" t="inlineStr"/>
+      <c r="Q905" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R905" t="inlineStr">
+        <is>
+          <t>36689664</t>
+        </is>
+      </c>
+      <c r="S905" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="T905" t="inlineStr">
+        <is>
+          <t>TAISA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U905" t="inlineStr">
+        <is>
+          <t>Venda Direta</t>
+        </is>
+      </c>
+      <c r="V905" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W905" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X905" t="inlineStr"/>
+      <c r="Y905" t="inlineStr"/>
+      <c r="Z905" t="inlineStr"/>
+      <c r="AA905" t="inlineStr"/>
+      <c r="AB905" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>21017</v>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Thamires Catarina Nascimento dos Santos</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>042.188.675-77</t>
+        </is>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>012839 3/12</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H906" t="n">
+        <v>170</v>
+      </c>
+      <c r="I906" t="n">
+        <v>170</v>
+      </c>
+      <c r="J906" t="n">
+        <v>0</v>
+      </c>
+      <c r="K906" t="n">
+        <v>170</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>0</v>
+      </c>
+      <c r="O906" t="inlineStr"/>
+      <c r="P906" t="inlineStr"/>
+      <c r="Q906" t="inlineStr"/>
+      <c r="R906" t="inlineStr"/>
+      <c r="S906" t="inlineStr"/>
+      <c r="T906" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U906" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V906" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W906" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X906" t="inlineStr"/>
+      <c r="Y906" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marschall Induatria Comercio Importacao </t>
+        </is>
+      </c>
+      <c r="Z906" t="inlineStr"/>
+      <c r="AA906" t="inlineStr"/>
+      <c r="AB906" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>23286</v>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Michelle Cristina Santos de Oliveira</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>083.671.425-35</t>
+        </is>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>014028 1/2</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H907" t="n">
+        <v>400</v>
+      </c>
+      <c r="I907" t="n">
+        <v>400</v>
+      </c>
+      <c r="J907" t="n">
+        <v>0</v>
+      </c>
+      <c r="K907" t="n">
+        <v>400</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>0</v>
+      </c>
+      <c r="O907" t="inlineStr"/>
+      <c r="P907" t="inlineStr"/>
+      <c r="Q907" t="inlineStr"/>
+      <c r="R907" t="inlineStr"/>
+      <c r="S907" t="inlineStr"/>
+      <c r="T907" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U907" t="inlineStr">
+        <is>
+          <t>Venda Direta</t>
+        </is>
+      </c>
+      <c r="V907" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W907" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X907" t="inlineStr"/>
+      <c r="Y907" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marschall Induatria Comercio Importacao </t>
+        </is>
+      </c>
+      <c r="Z907" t="inlineStr"/>
+      <c r="AA907" t="inlineStr"/>
+      <c r="AB907" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>25757</v>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Jeunevaldo Alves do Nascimento</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>553.325.015-87</t>
+        </is>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>008813 12/21</t>
+        </is>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H908" t="n">
+        <v>874.5</v>
+      </c>
+      <c r="I908" t="n">
+        <v>874.5</v>
+      </c>
+      <c r="J908" t="n">
+        <v>0</v>
+      </c>
+      <c r="K908" t="n">
+        <v>874.5</v>
+      </c>
+      <c r="L908" t="inlineStr"/>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>0</v>
+      </c>
+      <c r="O908" t="inlineStr"/>
+      <c r="P908" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q908" t="inlineStr"/>
+      <c r="R908" t="inlineStr"/>
+      <c r="S908" t="inlineStr"/>
+      <c r="T908" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VANINE PJ_INTER </t>
+        </is>
+      </c>
+      <c r="U908" t="inlineStr">
+        <is>
+          <t>Promissorias</t>
+        </is>
+      </c>
+      <c r="V908" t="inlineStr">
+        <is>
+          <t>Sthefanny Alves Britto</t>
+        </is>
+      </c>
+      <c r="W908" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="X908" t="inlineStr"/>
+      <c r="Y908" t="inlineStr">
+        <is>
+          <t>Vanine PJ</t>
+        </is>
+      </c>
+      <c r="Z908" t="inlineStr"/>
+      <c r="AA908" t="inlineStr"/>
+      <c r="AB908" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>20710</v>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Sandra Pereira do Nascimento</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>931.158.495-91</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>012738 4/14</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H909" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I909" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J909" t="n">
+        <v>0</v>
+      </c>
+      <c r="K909" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L909" t="inlineStr"/>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>0</v>
+      </c>
+      <c r="O909" t="inlineStr"/>
+      <c r="P909" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q909" t="inlineStr"/>
+      <c r="R909" t="inlineStr"/>
+      <c r="S909" t="inlineStr"/>
+      <c r="T909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VANINE PJ_INTER </t>
+        </is>
+      </c>
+      <c r="U909" t="inlineStr">
+        <is>
+          <t>Venda Direta</t>
+        </is>
+      </c>
+      <c r="V909" t="inlineStr">
+        <is>
+          <t>Sthefanny Alves Britto</t>
+        </is>
+      </c>
+      <c r="W909" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="X909" t="inlineStr"/>
+      <c r="Y909" t="inlineStr">
+        <is>
+          <t>Vanine PJ</t>
+        </is>
+      </c>
+      <c r="Z909" t="inlineStr"/>
+      <c r="AA909" t="inlineStr"/>
+      <c r="AB909" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>25864</v>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>Lizete Moreira Leal</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>000.773.385-29</t>
+        </is>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>008414 13/33</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H910" t="n">
+        <v>898.1900000000001</v>
+      </c>
+      <c r="I910" t="n">
+        <v>898.1900000000001</v>
+      </c>
+      <c r="J910" t="n">
+        <v>0</v>
+      </c>
+      <c r="K910" t="n">
+        <v>898.1900000000001</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>0</v>
+      </c>
+      <c r="O910" t="inlineStr"/>
+      <c r="P910" t="inlineStr"/>
+      <c r="Q910" t="inlineStr"/>
+      <c r="R910" t="inlineStr"/>
+      <c r="S910" t="inlineStr"/>
+      <c r="T910" t="inlineStr">
+        <is>
+          <t>LINCOLN PF_CEF</t>
+        </is>
+      </c>
+      <c r="U910" t="inlineStr">
+        <is>
+          <t>Promissorias</t>
+        </is>
+      </c>
+      <c r="V910" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W910" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X910" t="inlineStr"/>
+      <c r="Y910" t="inlineStr">
+        <is>
+          <t>Lincoln PF CEF</t>
+        </is>
+      </c>
+      <c r="Z910" t="inlineStr"/>
+      <c r="AA910" t="inlineStr"/>
+      <c r="AB910" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>28528</v>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Nilza Ferreira dos Santos</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>133.767.725-68</t>
+        </is>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>014031 1/1</t>
+        </is>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>Cartao de Debito</t>
+        </is>
+      </c>
+      <c r="H911" t="n">
+        <v>260</v>
+      </c>
+      <c r="I911" t="n">
+        <v>260</v>
+      </c>
+      <c r="J911" t="n">
+        <v>0</v>
+      </c>
+      <c r="K911" t="n">
+        <v>260</v>
+      </c>
+      <c r="L911" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>0</v>
+      </c>
+      <c r="O911" t="inlineStr"/>
+      <c r="P911" t="inlineStr"/>
+      <c r="Q911" t="inlineStr"/>
+      <c r="R911" t="inlineStr">
+        <is>
+          <t>273282</t>
+        </is>
+      </c>
+      <c r="S911" t="inlineStr"/>
+      <c r="T911" t="inlineStr">
+        <is>
+          <t>FELIPE PJ_INTER</t>
+        </is>
+      </c>
+      <c r="U911" t="inlineStr">
+        <is>
+          <t>Venda Direta</t>
+        </is>
+      </c>
+      <c r="V911" t="inlineStr">
+        <is>
+          <t>Marianna Estrella</t>
+        </is>
+      </c>
+      <c r="W911" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X911" t="inlineStr"/>
+      <c r="Y911" t="inlineStr"/>
+      <c r="Z911" t="inlineStr"/>
+      <c r="AA911" t="inlineStr"/>
+      <c r="AB911" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>28459</v>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Eribaldo Cardoso Neto</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>012.205.415-67</t>
+        </is>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>014030 1/12</t>
+        </is>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Parcelado</t>
+        </is>
+      </c>
+      <c r="H912" t="n">
+        <v>3400</v>
+      </c>
+      <c r="I912" t="n">
+        <v>3400</v>
+      </c>
+      <c r="J912" t="n">
+        <v>0</v>
+      </c>
+      <c r="K912" t="n">
+        <v>3400</v>
+      </c>
+      <c r="L912" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>0</v>
+      </c>
+      <c r="O912" t="inlineStr"/>
+      <c r="P912" t="inlineStr"/>
+      <c r="Q912" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R912" t="inlineStr">
+        <is>
+          <t>37839830</t>
+        </is>
+      </c>
+      <c r="S912" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="T912" t="inlineStr">
+        <is>
+          <t>TAISA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U912" t="inlineStr">
+        <is>
+          <t>Follow-UP</t>
+        </is>
+      </c>
+      <c r="V912" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W912" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X912" t="inlineStr"/>
+      <c r="Y912" t="inlineStr"/>
+      <c r="Z912" t="inlineStr"/>
+      <c r="AA912" t="inlineStr"/>
+      <c r="AB912" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>28459</v>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Eribaldo Cardoso Neto</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>012.205.415-67</t>
+        </is>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>014029 1/1</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H913" t="n">
+        <v>1050</v>
+      </c>
+      <c r="I913" t="n">
+        <v>1050</v>
+      </c>
+      <c r="J913" t="n">
+        <v>0</v>
+      </c>
+      <c r="K913" t="n">
+        <v>1050</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>0</v>
+      </c>
+      <c r="O913" t="inlineStr"/>
+      <c r="P913" t="inlineStr"/>
+      <c r="Q913" t="inlineStr"/>
+      <c r="R913" t="inlineStr"/>
+      <c r="S913" t="inlineStr"/>
+      <c r="T913" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U913" t="inlineStr">
+        <is>
+          <t>Cortesia Cred</t>
+        </is>
+      </c>
+      <c r="V913" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W913" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X913" t="inlineStr"/>
+      <c r="Y913" t="inlineStr">
+        <is>
+          <t>CORTESIA ENXERTO POR DR. LINCOLN.</t>
+        </is>
+      </c>
+      <c r="Z913" t="inlineStr"/>
+      <c r="AA913" t="inlineStr"/>
+      <c r="AB913" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>28167</v>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Reinaldo Santos</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>750.299.875-68</t>
+        </is>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>013279 2/2</t>
+        </is>
+      </c>
+      <c r="G914" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H914" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J914" t="n">
+        <v>0</v>
+      </c>
+      <c r="K914" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L914" t="inlineStr"/>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>0</v>
+      </c>
+      <c r="O914" t="inlineStr"/>
+      <c r="P914" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q914" t="inlineStr"/>
+      <c r="R914" t="inlineStr"/>
+      <c r="S914" t="inlineStr"/>
+      <c r="T914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VANINE PJ_INTER </t>
+        </is>
+      </c>
+      <c r="U914" t="inlineStr">
+        <is>
+          <t>Venda Direta</t>
+        </is>
+      </c>
+      <c r="V914" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W914" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="X914" t="inlineStr"/>
+      <c r="Y914" t="inlineStr">
+        <is>
+          <t>Vanine Meneses Calheira PJ INTER</t>
+        </is>
+      </c>
+      <c r="Z914" t="inlineStr"/>
+      <c r="AA914" t="inlineStr"/>
+      <c r="AB914" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>25867</v>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>Dilma Santos Lima</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>647.527.395-34</t>
+        </is>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>011864 5/10</t>
+        </is>
+      </c>
+      <c r="G915" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H915" t="n">
+        <v>185</v>
+      </c>
+      <c r="I915" t="n">
+        <v>185</v>
+      </c>
+      <c r="J915" t="n">
+        <v>0</v>
+      </c>
+      <c r="K915" t="n">
+        <v>185</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>0</v>
+      </c>
+      <c r="O915" t="inlineStr"/>
+      <c r="P915" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q915" t="inlineStr"/>
+      <c r="R915" t="inlineStr"/>
+      <c r="S915" t="inlineStr"/>
+      <c r="T915" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U915" t="inlineStr">
+        <is>
+          <t>Cortesia Cred</t>
+        </is>
+      </c>
+      <c r="V915" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W915" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
+      <c r="X915" t="inlineStr"/>
+      <c r="Y915" t="inlineStr">
+        <is>
+          <t>Nao paga manutencao! Paciente de protocolo</t>
+        </is>
+      </c>
+      <c r="Z915" t="inlineStr"/>
+      <c r="AA915" t="inlineStr"/>
+      <c r="AB915" t="inlineStr"/>
+      <c r="AC915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>25167</v>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Iara Araujo de Oliveira</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>023.125.385-04</t>
+        </is>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>012832 3/12</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="H916" t="n">
+        <v>170</v>
+      </c>
+      <c r="I916" t="n">
+        <v>166</v>
+      </c>
+      <c r="J916" t="n">
+        <v>0</v>
+      </c>
+      <c r="K916" t="n">
+        <v>166</v>
+      </c>
+      <c r="L916" t="inlineStr"/>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>0</v>
+      </c>
+      <c r="O916" t="inlineStr"/>
+      <c r="P916" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="Q916" t="inlineStr"/>
+      <c r="R916" t="inlineStr"/>
+      <c r="S916" t="inlineStr"/>
+      <c r="T916" t="inlineStr">
+        <is>
+          <t>CAIXA ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="U916" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V916" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W916" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X916" t="inlineStr"/>
+      <c r="Y916" t="inlineStr"/>
+      <c r="Z916" t="inlineStr"/>
+      <c r="AA916" t="inlineStr"/>
+      <c r="AB916" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>28378</v>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>Marcos Alves dos Santos</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>015.493.435-64</t>
+        </is>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>014032 1/3</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Parcelado</t>
+        </is>
+      </c>
+      <c r="H917" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I917" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J917" t="n">
+        <v>0</v>
+      </c>
+      <c r="K917" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L917" t="n">
+        <v>7</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>0</v>
+      </c>
+      <c r="O917" t="inlineStr"/>
+      <c r="P917" t="inlineStr"/>
+      <c r="Q917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R917" t="inlineStr">
+        <is>
+          <t>42500294</t>
+        </is>
+      </c>
+      <c r="S917" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="T917" t="inlineStr">
+        <is>
+          <t>MARINA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U917" t="inlineStr">
+        <is>
+          <t>Resgate</t>
+        </is>
+      </c>
+      <c r="V917" t="inlineStr">
+        <is>
+          <t>Raylane Salles</t>
+        </is>
+      </c>
+      <c r="W917" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X917" t="inlineStr"/>
+      <c r="Y917" t="inlineStr"/>
+      <c r="Z917" t="inlineStr"/>
+      <c r="AA917" t="inlineStr"/>
+      <c r="AB917" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="AC917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>3568</v>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>Geovane Pereira dos Santos</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>055.788.905-71</t>
+        </is>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>013572 2/12</t>
+        </is>
+      </c>
+      <c r="G918" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H918" t="n">
+        <v>150</v>
+      </c>
+      <c r="I918" t="n">
+        <v>150</v>
+      </c>
+      <c r="J918" t="n">
+        <v>0</v>
+      </c>
+      <c r="K918" t="n">
+        <v>150</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>0</v>
+      </c>
+      <c r="N918" t="n">
+        <v>0</v>
+      </c>
+      <c r="O918" t="inlineStr"/>
+      <c r="P918" t="inlineStr"/>
+      <c r="Q918" t="inlineStr"/>
+      <c r="R918" t="inlineStr"/>
+      <c r="S918" t="inlineStr"/>
+      <c r="T918" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U918" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V918" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W918" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="X918" t="inlineStr"/>
+      <c r="Y918" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marschall Induatria Comercio Importacao </t>
+        </is>
+      </c>
+      <c r="Z918" t="inlineStr"/>
+      <c r="AA918" t="inlineStr"/>
+      <c r="AB918" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>22563</v>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Alvaro Kruschewsky Miguel Neto</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>002.496.305-40</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>009247 11/13</t>
+        </is>
+      </c>
+      <c r="G919" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H919" t="n">
+        <v>460.98</v>
+      </c>
+      <c r="I919" t="n">
+        <v>460.98</v>
+      </c>
+      <c r="J919" t="n">
+        <v>0</v>
+      </c>
+      <c r="K919" t="n">
+        <v>460.98</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0</v>
+      </c>
+      <c r="N919" t="n">
+        <v>0</v>
+      </c>
+      <c r="O919" t="inlineStr"/>
+      <c r="P919" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q919" t="inlineStr"/>
+      <c r="R919" t="inlineStr"/>
+      <c r="S919" t="inlineStr"/>
+      <c r="T919" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U919" t="inlineStr">
+        <is>
+          <t>Promissorias</t>
+        </is>
+      </c>
+      <c r="V919" t="inlineStr">
+        <is>
+          <t>Sthefanny Alves Britto</t>
+        </is>
+      </c>
+      <c r="W919" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="X919" t="inlineStr"/>
+      <c r="Y919" t="inlineStr">
+        <is>
+          <t>Britocar</t>
+        </is>
+      </c>
+      <c r="Z919" t="inlineStr"/>
+      <c r="AA919" t="inlineStr"/>
+      <c r="AB919" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>22563</v>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Alvaro Kruschewsky Miguel Neto</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>002.496.305-40</t>
+        </is>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>010241 8/10</t>
+        </is>
+      </c>
+      <c r="G920" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H920" t="n">
+        <v>228</v>
+      </c>
+      <c r="I920" t="n">
+        <v>228</v>
+      </c>
+      <c r="J920" t="n">
+        <v>0</v>
+      </c>
+      <c r="K920" t="n">
+        <v>228</v>
+      </c>
+      <c r="L920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M920" t="n">
+        <v>0</v>
+      </c>
+      <c r="N920" t="n">
+        <v>0</v>
+      </c>
+      <c r="O920" t="inlineStr"/>
+      <c r="P920" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q920" t="inlineStr"/>
+      <c r="R920" t="inlineStr"/>
+      <c r="S920" t="inlineStr"/>
+      <c r="T920" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U920" t="inlineStr">
+        <is>
+          <t>Promissorias</t>
+        </is>
+      </c>
+      <c r="V920" t="inlineStr">
+        <is>
+          <t>Marianna Estrella</t>
+        </is>
+      </c>
+      <c r="W920" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="X920" t="inlineStr"/>
+      <c r="Y920" t="inlineStr">
+        <is>
+          <t>Britocar</t>
+        </is>
+      </c>
+      <c r="Z920" t="inlineStr"/>
+      <c r="AA920" t="inlineStr"/>
+      <c r="AB920" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>22115</v>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Laiana de Souza Modesto</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>021.738.725-08</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>012901 3/12</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Rotativo</t>
+        </is>
+      </c>
+      <c r="H921" t="n">
+        <v>175</v>
+      </c>
+      <c r="I921" t="n">
+        <v>183.75</v>
+      </c>
+      <c r="J921" t="n">
+        <v>0</v>
+      </c>
+      <c r="K921" t="n">
+        <v>183.75</v>
+      </c>
+      <c r="L921" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M921" t="n">
+        <v>0</v>
+      </c>
+      <c r="N921" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O921" t="inlineStr"/>
+      <c r="P921" t="inlineStr"/>
+      <c r="Q921" t="inlineStr"/>
+      <c r="R921" t="inlineStr">
+        <is>
+          <t>43606628</t>
+        </is>
+      </c>
+      <c r="S921" t="inlineStr"/>
+      <c r="T921" t="inlineStr">
+        <is>
+          <t>MARINA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U921" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V921" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W921" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X921" t="inlineStr"/>
+      <c r="Y921" t="inlineStr"/>
+      <c r="Z921" t="inlineStr"/>
+      <c r="AA921" t="inlineStr"/>
+      <c r="AB921" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>25921</v>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Luka Vieira Lima</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>060.881.795-38</t>
+        </is>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>014033 1/1</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H922" t="n">
+        <v>460</v>
+      </c>
+      <c r="I922" t="n">
+        <v>460</v>
+      </c>
+      <c r="J922" t="n">
+        <v>0</v>
+      </c>
+      <c r="K922" t="n">
+        <v>460</v>
+      </c>
+      <c r="L922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M922" t="n">
+        <v>0</v>
+      </c>
+      <c r="N922" t="n">
+        <v>0</v>
+      </c>
+      <c r="O922" t="inlineStr"/>
+      <c r="P922" t="inlineStr"/>
+      <c r="Q922" t="inlineStr"/>
+      <c r="R922" t="inlineStr"/>
+      <c r="S922" t="inlineStr"/>
+      <c r="T922" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U922" t="inlineStr">
+        <is>
+          <t>Resgate</t>
+        </is>
+      </c>
+      <c r="V922" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W922" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X922" t="inlineStr"/>
+      <c r="Y922" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marschall Induatria Comercio Importacao </t>
+        </is>
+      </c>
+      <c r="Z922" t="inlineStr">
+        <is>
+          <t>Thais Vieira da Costa</t>
+        </is>
+      </c>
+      <c r="AA922" t="inlineStr">
+        <is>
+          <t>951.935.705-00</t>
+        </is>
+      </c>
+      <c r="AB922" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>24613</v>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Ivanice Pastora dos Santos</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>967.148.405-00</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>012455 4/12</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="H923" t="n">
+        <v>160</v>
+      </c>
+      <c r="I923" t="n">
+        <v>160</v>
+      </c>
+      <c r="J923" t="n">
+        <v>0</v>
+      </c>
+      <c r="K923" t="n">
+        <v>160</v>
+      </c>
+      <c r="L923" t="inlineStr"/>
+      <c r="M923" t="n">
+        <v>0</v>
+      </c>
+      <c r="N923" t="n">
+        <v>0</v>
+      </c>
+      <c r="O923" t="inlineStr"/>
+      <c r="P923" t="inlineStr"/>
+      <c r="Q923" t="inlineStr"/>
+      <c r="R923" t="inlineStr"/>
+      <c r="S923" t="inlineStr"/>
+      <c r="T923" t="inlineStr">
+        <is>
+          <t>CAIXA ATENDIMENTO</t>
+        </is>
+      </c>
+      <c r="U923" t="inlineStr">
+        <is>
+          <t>Manutencao Ortodontica</t>
+        </is>
+      </c>
+      <c r="V923" t="inlineStr">
+        <is>
+          <t>Lincoln DE Andrade Fonseca</t>
+        </is>
+      </c>
+      <c r="W923" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="X923" t="inlineStr"/>
+      <c r="Y923" t="inlineStr"/>
+      <c r="Z923" t="inlineStr"/>
+      <c r="AA923" t="inlineStr"/>
+      <c r="AB923" t="inlineStr">
+        <is>
+          <t>Fabiana Souza</t>
+        </is>
+      </c>
+      <c r="AC923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>28531</v>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Icaro Rhuam Souza Santana Santos</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr"/>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>014035 1/1</t>
+        </is>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>Credito em Conta</t>
+        </is>
+      </c>
+      <c r="H924" t="n">
+        <v>250</v>
+      </c>
+      <c r="I924" t="n">
+        <v>250</v>
+      </c>
+      <c r="J924" t="n">
+        <v>0</v>
+      </c>
+      <c r="K924" t="n">
+        <v>250</v>
+      </c>
+      <c r="L924" t="n">
+        <v>0</v>
+      </c>
+      <c r="M924" t="n">
+        <v>0</v>
+      </c>
+      <c r="N924" t="n">
+        <v>0</v>
+      </c>
+      <c r="O924" t="inlineStr"/>
+      <c r="P924" t="inlineStr"/>
+      <c r="Q924" t="inlineStr"/>
+      <c r="R924" t="inlineStr"/>
+      <c r="S924" t="inlineStr"/>
+      <c r="T924" t="inlineStr">
+        <is>
+          <t>CONTAS FORNECEDORES</t>
+        </is>
+      </c>
+      <c r="U924" t="inlineStr">
+        <is>
+          <t>Estorno de pagamento Cred</t>
+        </is>
+      </c>
+      <c r="V924" t="inlineStr">
+        <is>
+          <t>Marianna Estrella</t>
+        </is>
+      </c>
+      <c r="W924" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="X924" t="inlineStr"/>
+      <c r="Y924" t="inlineStr">
+        <is>
+          <t>ESTORNO DE PAGAMENTO Mae do pacieente tranferiu o valor para o irmao dele Italo Gabriel Souza Santana Santos, pois o mesmo tem convenio e faz limpeza por la, porem o pai nao sabia e pagou a limpeza aqui.</t>
+        </is>
+      </c>
+      <c r="Z924" t="inlineStr"/>
+      <c r="AA924" t="inlineStr"/>
+      <c r="AB924" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Recebimento Total</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>21452</v>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Vandete Aragao Barbosa Oliveira</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>668.523.235-87</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>010881 1/4</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>Cartao de Credito - Parcelado</t>
+        </is>
+      </c>
+      <c r="H925" t="n">
+        <v>685</v>
+      </c>
+      <c r="I925" t="n">
+        <v>685</v>
+      </c>
+      <c r="J925" t="n">
+        <v>0</v>
+      </c>
+      <c r="K925" t="n">
+        <v>685</v>
+      </c>
+      <c r="L925" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M925" t="n">
+        <v>0</v>
+      </c>
+      <c r="N925" t="n">
+        <v>0</v>
+      </c>
+      <c r="O925" t="inlineStr"/>
+      <c r="P925" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="Q925" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R925" t="inlineStr">
+        <is>
+          <t>44403884</t>
+        </is>
+      </c>
+      <c r="S925" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="T925" t="inlineStr">
+        <is>
+          <t>MARINA PJ_NBK</t>
+        </is>
+      </c>
+      <c r="U925" t="inlineStr">
+        <is>
+          <t>Resgate</t>
+        </is>
+      </c>
+      <c r="V925" t="inlineStr">
+        <is>
+          <t>Sthefanny Alves Britto</t>
+        </is>
+      </c>
+      <c r="W925" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="X925" t="inlineStr"/>
+      <c r="Y925" t="inlineStr"/>
+      <c r="Z925" t="inlineStr"/>
+      <c r="AA925" t="inlineStr"/>
+      <c r="AB925" t="inlineStr">
+        <is>
+          <t>Samuel Oliveira</t>
+        </is>
+      </c>
+      <c r="AC925" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
